--- a/output/fit_clients/fit_round_389.xlsx
+++ b/output/fit_clients/fit_round_389.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,16 +469,6 @@
           <t>isSelected</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>involvement_history</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>reward</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -490,28 +480,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1949294974.508496</v>
+        <v>2474861665.26204</v>
       </c>
       <c r="F2" t="n">
-        <v>0.107682094565253</v>
+        <v>0.0802135490202871</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03532084893393565</v>
+        <v>0.02910781359586656</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>1</v>
-      </c>
-      <c r="J2" t="n">
-        <v>974647476.0924162</v>
       </c>
     </row>
     <row r="3">
@@ -524,28 +508,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2464047349.746526</v>
+        <v>2428374186.078491</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1222130002856845</v>
+        <v>0.1200026963649197</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03776215944190638</v>
+        <v>0.03199981898335771</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>9</v>
-      </c>
-      <c r="J3" t="n">
-        <v>1232023786.816904</v>
       </c>
     </row>
     <row r="4">
@@ -558,28 +536,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>3355604472.467714</v>
+        <v>5204128724.279286</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1272476516118661</v>
+        <v>0.1298922322189045</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03201157016822956</v>
+        <v>0.02456397714219635</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>140</v>
-      </c>
-      <c r="J4" t="n">
-        <v>1677802204.768017</v>
       </c>
     </row>
     <row r="5">
@@ -592,28 +564,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>2842086613.64614</v>
+        <v>3881930294.05572</v>
       </c>
       <c r="F5" t="n">
-        <v>0.09594514015581319</v>
+        <v>0.1002005662169641</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04203756936536784</v>
+        <v>0.03153224272928361</v>
       </c>
       <c r="H5" t="b">
-        <v>1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>144</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1421043387.155596</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -626,28 +592,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2718648572.068151</v>
+        <v>2852133149.245607</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1355370841745683</v>
+        <v>0.1431813235014106</v>
       </c>
       <c r="G6" t="n">
-        <v>0.05462522461344127</v>
+        <v>0.05649944974413559</v>
       </c>
       <c r="H6" t="b">
-        <v>1</v>
-      </c>
-      <c r="I6" t="n">
-        <v>72</v>
-      </c>
-      <c r="J6" t="n">
-        <v>1359324237.868209</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -660,28 +620,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2438069068.261045</v>
+        <v>2599873798.548706</v>
       </c>
       <c r="F7" t="n">
-        <v>0.08117262443918327</v>
+        <v>0.0997723465192102</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03694899992517849</v>
+        <v>0.04361654569106254</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>121</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1219034553.114563</v>
       </c>
     </row>
     <row r="8">
@@ -694,28 +648,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3613610790.447186</v>
+        <v>2622475670.245391</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1654866034697396</v>
+        <v>0.1707300959296179</v>
       </c>
       <c r="G8" t="n">
-        <v>0.03071050882003101</v>
+        <v>0.02883949344203311</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>124</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1806805515.47772</v>
       </c>
     </row>
     <row r="9">
@@ -728,28 +676,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>2137417696.685351</v>
+        <v>1988433593.756227</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1325436434078127</v>
+        <v>0.1587275666143505</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03675528695221766</v>
+        <v>0.0264851857523985</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>1068708855.902627</v>
       </c>
     </row>
     <row r="10">
@@ -762,28 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4596681972.317116</v>
+        <v>5468469927.780749</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1757165748408957</v>
+        <v>0.187446012409219</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04648745535948784</v>
+        <v>0.04042403492222515</v>
       </c>
       <c r="H10" t="b">
-        <v>1</v>
-      </c>
-      <c r="I10" t="n">
-        <v>163</v>
-      </c>
-      <c r="J10" t="n">
-        <v>2298341054.260203</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -796,28 +732,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>2774163843.042082</v>
+        <v>3983945219.242286</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1256403045750066</v>
+        <v>0.1408890842747247</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04007495437664993</v>
+        <v>0.04109380372875614</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>161</v>
-      </c>
-      <c r="J11" t="n">
-        <v>1387081848.714765</v>
       </c>
     </row>
     <row r="12">
@@ -836,22 +766,16 @@
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>3044673803.103235</v>
+        <v>3009885858.466002</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1851364198418843</v>
+        <v>0.1679763150369353</v>
       </c>
       <c r="G12" t="n">
-        <v>0.0521809639038089</v>
+        <v>0.05294156146531351</v>
       </c>
       <c r="H12" t="b">
-        <v>1</v>
-      </c>
-      <c r="I12" t="n">
-        <v>132</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1522336923.652826</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -870,22 +794,16 @@
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4972560862.352338</v>
+        <v>3562749949.447238</v>
       </c>
       <c r="F13" t="n">
-        <v>0.08645857913785278</v>
+        <v>0.09735563434451071</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02762029607673287</v>
+        <v>0.0274245047542697</v>
       </c>
       <c r="H13" t="b">
-        <v>1</v>
-      </c>
-      <c r="I13" t="n">
-        <v>130</v>
-      </c>
-      <c r="J13" t="n">
-        <v>2486280436.720613</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -898,28 +816,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>2509063187.202798</v>
+        <v>3768294426.310411</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1425514955322797</v>
+        <v>0.1643454629354453</v>
       </c>
       <c r="G14" t="n">
-        <v>0.04422742909665998</v>
+        <v>0.04074801695069294</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>125</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1254531663.603334</v>
       </c>
     </row>
     <row r="15">
@@ -932,28 +844,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1778298739.572303</v>
+        <v>1558154685.504079</v>
       </c>
       <c r="F15" t="n">
-        <v>0.08966361019713064</v>
+        <v>0.06656351230303352</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04851531698242242</v>
+        <v>0.04903200231206082</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>889149518.393191</v>
       </c>
     </row>
     <row r="16">
@@ -972,22 +878,16 @@
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2359852505.358752</v>
+        <v>2050035049.499894</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1044459609278725</v>
+        <v>0.09973668971398519</v>
       </c>
       <c r="G16" t="n">
-        <v>0.0339237025411616</v>
+        <v>0.05054812956384223</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>80</v>
-      </c>
-      <c r="J16" t="n">
-        <v>1179926296.032291</v>
       </c>
     </row>
     <row r="17">
@@ -1000,28 +900,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4707779198.340876</v>
+        <v>3516818803.927348</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1412992883581526</v>
+        <v>0.1590603494182991</v>
       </c>
       <c r="G17" t="n">
-        <v>0.03563355720773654</v>
+        <v>0.04645775581423282</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>114</v>
-      </c>
-      <c r="J17" t="n">
-        <v>2353889598.789635</v>
       </c>
     </row>
     <row r="18">
@@ -1040,22 +934,16 @@
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>2982837464.386165</v>
+        <v>3658635348.236783</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1362084189879018</v>
+        <v>0.1175043133518168</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02622274024814223</v>
+        <v>0.02244905001611</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
-      </c>
-      <c r="I18" t="n">
-        <v>127</v>
-      </c>
-      <c r="J18" t="n">
-        <v>1491418763.711634</v>
       </c>
     </row>
     <row r="19">
@@ -1068,28 +956,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1005903820.809771</v>
+        <v>1308024791.818297</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1721270760668856</v>
+        <v>0.1845551980905541</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02183210648410382</v>
+        <v>0.02650406347046372</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>502951941.0747421</v>
       </c>
     </row>
     <row r="20">
@@ -1108,22 +990,16 @@
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>1991856525.298845</v>
+        <v>1704525711.99319</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1169596366725487</v>
+        <v>0.1436517251734654</v>
       </c>
       <c r="G20" t="n">
-        <v>0.0317898122574229</v>
+        <v>0.02970928119227703</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>50</v>
-      </c>
-      <c r="J20" t="n">
-        <v>995928289.8759711</v>
       </c>
     </row>
     <row r="21">
@@ -1142,22 +1018,16 @@
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>1925927767.870142</v>
+        <v>2234965350.048105</v>
       </c>
       <c r="F21" t="n">
-        <v>0.09940482575291841</v>
+        <v>0.08481735832690432</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03220510860107555</v>
+        <v>0.03178347491090818</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>32</v>
-      </c>
-      <c r="J21" t="n">
-        <v>962963926.9844404</v>
       </c>
     </row>
     <row r="22">
@@ -1170,28 +1040,22 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>2724149536.72041</v>
+        <v>2515825198.485035</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1209581787523141</v>
+        <v>0.1170621104577722</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04500983371937382</v>
+        <v>0.05440531937454166</v>
       </c>
       <c r="H22" t="b">
-        <v>1</v>
-      </c>
-      <c r="I22" t="n">
-        <v>108</v>
-      </c>
-      <c r="J22" t="n">
-        <v>1362074846.425067</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -1210,22 +1074,16 @@
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1480302504.775647</v>
+        <v>1546493992.536865</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1375183997854356</v>
+        <v>0.1408637190054015</v>
       </c>
       <c r="G23" t="n">
-        <v>0.05167335886554575</v>
+        <v>0.049485950211459</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>740151241.6563441</v>
       </c>
     </row>
     <row r="24">
@@ -1238,28 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3150126764.851566</v>
+        <v>2808329161.835726</v>
       </c>
       <c r="F24" t="n">
-        <v>0.09349632431234131</v>
+        <v>0.1169588625137004</v>
       </c>
       <c r="G24" t="n">
-        <v>0.0318977271285637</v>
+        <v>0.03637020535651465</v>
       </c>
       <c r="H24" t="b">
         <v>0</v>
-      </c>
-      <c r="I24" t="n">
-        <v>114</v>
-      </c>
-      <c r="J24" t="n">
-        <v>1575063407.586679</v>
       </c>
     </row>
     <row r="25">
@@ -1272,28 +1124,22 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1146883946.472753</v>
+        <v>1319427789.11333</v>
       </c>
       <c r="F25" t="n">
-        <v>0.09381530159881347</v>
+        <v>0.1186856205382284</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02804371179637298</v>
+        <v>0.01905766892485069</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>573442003.4307767</v>
       </c>
     </row>
     <row r="26">
@@ -1312,22 +1158,16 @@
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>971072214.1169219</v>
+        <v>944813274.5111929</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1131088821710927</v>
+        <v>0.1013861656597282</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03849269774348778</v>
+        <v>0.02445811172654847</v>
       </c>
       <c r="H26" t="b">
-        <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>485536072.0619839</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27">
@@ -1340,28 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>4306335665.292103</v>
+        <v>3297841711.238322</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1034763509291677</v>
+        <v>0.1284658563949677</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02113549895497245</v>
+        <v>0.02315478227317232</v>
       </c>
       <c r="H27" t="b">
-        <v>1</v>
-      </c>
-      <c r="I27" t="n">
-        <v>95</v>
-      </c>
-      <c r="J27" t="n">
-        <v>2153167827.581754</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -1374,28 +1208,22 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3122672668.437757</v>
+        <v>2513314749.647698</v>
       </c>
       <c r="F28" t="n">
-        <v>0.134219332457327</v>
+        <v>0.1403352941868037</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03538506676377276</v>
+        <v>0.04203875030469921</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
-      </c>
-      <c r="I28" t="n">
-        <v>125</v>
-      </c>
-      <c r="J28" t="n">
-        <v>1561336356.13046</v>
       </c>
     </row>
     <row r="29">
@@ -1408,28 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4971886295.366833</v>
+        <v>4488404244.329107</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1097438188636562</v>
+        <v>0.09346836232027525</v>
       </c>
       <c r="G29" t="n">
-        <v>0.04323548005647593</v>
+        <v>0.03350195919558655</v>
       </c>
       <c r="H29" t="b">
         <v>0</v>
-      </c>
-      <c r="I29" t="n">
-        <v>172</v>
-      </c>
-      <c r="J29" t="n">
-        <v>2485943097.254187</v>
       </c>
     </row>
     <row r="30">
@@ -1442,28 +1264,22 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2044486339.262433</v>
+        <v>1747499336.844972</v>
       </c>
       <c r="F30" t="n">
-        <v>0.09874927824341299</v>
+        <v>0.0998255138498499</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03869233764807994</v>
+        <v>0.03920521974809584</v>
       </c>
       <c r="H30" t="b">
-        <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>1022243212.170592</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31">
@@ -1476,28 +1292,22 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1496481345.473036</v>
+        <v>1255500385.623208</v>
       </c>
       <c r="F31" t="n">
-        <v>0.09456068344003581</v>
+        <v>0.07246824547108306</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04157898635257145</v>
+        <v>0.03991351864136422</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>748240554.4351435</v>
       </c>
     </row>
     <row r="32">
@@ -1510,28 +1320,22 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1602567463.523752</v>
+        <v>1156484216.443916</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1061947256412355</v>
+        <v>0.08880125352608324</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03412968950499958</v>
+        <v>0.03484997021040748</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>801283821.3673791</v>
       </c>
     </row>
     <row r="33">
@@ -1544,28 +1348,22 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2161601751.913654</v>
+        <v>2140051597.200013</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1755100245620169</v>
+        <v>0.2052385425358262</v>
       </c>
       <c r="G33" t="n">
-        <v>0.0377658565783531</v>
+        <v>0.04090565039266815</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
-      </c>
-      <c r="I33" t="n">
-        <v>117</v>
-      </c>
-      <c r="J33" t="n">
-        <v>1080800942.989016</v>
       </c>
     </row>
     <row r="34">
@@ -1578,28 +1376,22 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1170760780.883033</v>
+        <v>1303870244.73313</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1052728349965196</v>
+        <v>0.08516802795973311</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02435675962175883</v>
+        <v>0.02266083351111046</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>585380400.2731044</v>
       </c>
     </row>
     <row r="35">
@@ -1612,28 +1404,22 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1199249042.533726</v>
+        <v>1224833876.470961</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1121372111650202</v>
+        <v>0.1174233622721317</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03395468851589641</v>
+        <v>0.03431423392777891</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>599624496.1712232</v>
       </c>
     </row>
     <row r="36">
@@ -1646,28 +1432,22 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>3030050326.140844</v>
+        <v>2554065457.965821</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1703435883813041</v>
+        <v>0.1488795558546289</v>
       </c>
       <c r="G36" t="n">
-        <v>0.01862716418251794</v>
+        <v>0.02409921335440072</v>
       </c>
       <c r="H36" t="b">
-        <v>1</v>
-      </c>
-      <c r="I36" t="n">
-        <v>99</v>
-      </c>
-      <c r="J36" t="n">
-        <v>1515025142.589393</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -1680,28 +1460,22 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2552322695.600985</v>
+        <v>1862105331.505492</v>
       </c>
       <c r="F37" t="n">
-        <v>0.08789026893449711</v>
+        <v>0.1104256581026927</v>
       </c>
       <c r="G37" t="n">
-        <v>0.02650998421827076</v>
+        <v>0.03358831614553102</v>
       </c>
       <c r="H37" t="b">
-        <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>102</v>
-      </c>
-      <c r="J37" t="n">
-        <v>1276161451.076515</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38">
@@ -1720,22 +1494,16 @@
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>2026546801.921516</v>
+        <v>1644457805.517199</v>
       </c>
       <c r="F38" t="n">
-        <v>0.08018493043879643</v>
+        <v>0.07498526882592106</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03449201588850458</v>
+        <v>0.0321636714500908</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>1013273375.848663</v>
       </c>
     </row>
     <row r="39">
@@ -1748,28 +1516,22 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>2161894449.223766</v>
+        <v>1724076795.821243</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1632921561854176</v>
+        <v>0.1420913913165919</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02447976810247279</v>
+        <v>0.03020265126708124</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>1080947194.592234</v>
       </c>
     </row>
     <row r="40">
@@ -1788,22 +1550,16 @@
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1609033378.783123</v>
+        <v>1136606825.02007</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1055435476681103</v>
+        <v>0.1606298103164581</v>
       </c>
       <c r="G40" t="n">
-        <v>0.04453498308788579</v>
+        <v>0.06023374982485277</v>
       </c>
       <c r="H40" t="b">
-        <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>804516628.3173158</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41">
@@ -1816,28 +1572,22 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2150988962.629542</v>
+        <v>2286211574.559691</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1252972533135637</v>
+        <v>0.1398673785884159</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03790604663581611</v>
+        <v>0.03200787702081662</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>99</v>
-      </c>
-      <c r="J41" t="n">
-        <v>1075494540.817477</v>
       </c>
     </row>
     <row r="42">
@@ -1850,28 +1600,22 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>4114893668.472432</v>
+        <v>3183017685.749193</v>
       </c>
       <c r="F42" t="n">
-        <v>0.08150619320985517</v>
+        <v>0.07906856116733647</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03082675933988113</v>
+        <v>0.03314568156281713</v>
       </c>
       <c r="H42" t="b">
-        <v>0</v>
-      </c>
-      <c r="I42" t="n">
-        <v>126</v>
-      </c>
-      <c r="J42" t="n">
-        <v>2057446871.416651</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43">
@@ -1884,28 +1628,22 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2991079710.240179</v>
+        <v>2650700777.214695</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1331687721609122</v>
+        <v>0.1372331463080786</v>
       </c>
       <c r="G43" t="n">
-        <v>0.01772277508476146</v>
+        <v>0.02323105394616845</v>
       </c>
       <c r="H43" t="b">
         <v>1</v>
-      </c>
-      <c r="I43" t="n">
-        <v>134</v>
-      </c>
-      <c r="J43" t="n">
-        <v>1495539854.421128</v>
       </c>
     </row>
     <row r="44">
@@ -1918,28 +1656,22 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>2206839062.255725</v>
+        <v>1839134828.37662</v>
       </c>
       <c r="F44" t="n">
-        <v>0.1011153725004472</v>
+        <v>0.09943357481683832</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02521641698813005</v>
+        <v>0.02912440902564866</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>1103419678.75314</v>
       </c>
     </row>
     <row r="45">
@@ -1952,28 +1684,22 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1945241584.734643</v>
+        <v>1744242144.426304</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1412989475924175</v>
+        <v>0.1696642176520574</v>
       </c>
       <c r="G45" t="n">
-        <v>0.03896377344602362</v>
+        <v>0.03401356834588969</v>
       </c>
       <c r="H45" t="b">
-        <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="n">
-        <v>972620777.7040577</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46">
@@ -1992,22 +1718,16 @@
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4465090184.125438</v>
+        <v>5510774732.345835</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1469895947162566</v>
+        <v>0.1620107270207576</v>
       </c>
       <c r="G46" t="n">
-        <v>0.05988232282878692</v>
+        <v>0.06114886127526878</v>
       </c>
       <c r="H46" t="b">
         <v>0</v>
-      </c>
-      <c r="I46" t="n">
-        <v>138</v>
-      </c>
-      <c r="J46" t="n">
-        <v>2232545088.233474</v>
       </c>
     </row>
     <row r="47">
@@ -2020,28 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3623726222.052172</v>
+        <v>5005652917.445296</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1329272222143585</v>
+        <v>0.1236569328814549</v>
       </c>
       <c r="G47" t="n">
-        <v>0.05592229937803217</v>
+        <v>0.04788406735630048</v>
       </c>
       <c r="H47" t="b">
         <v>0</v>
-      </c>
-      <c r="I47" t="n">
-        <v>104</v>
-      </c>
-      <c r="J47" t="n">
-        <v>1811863088.832218</v>
       </c>
     </row>
     <row r="48">
@@ -2054,28 +1768,22 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3249602415.43019</v>
+        <v>3130320020.223207</v>
       </c>
       <c r="F48" t="n">
-        <v>0.1043285835009866</v>
+        <v>0.09039388608022252</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03323908191246695</v>
+        <v>0.03909605964546653</v>
       </c>
       <c r="H48" t="b">
-        <v>0</v>
-      </c>
-      <c r="I48" t="n">
-        <v>126</v>
-      </c>
-      <c r="J48" t="n">
-        <v>1624801285.740606</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49">
@@ -2088,28 +1796,22 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1582947884.356574</v>
+        <v>1593359305.123227</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1450396217630179</v>
+        <v>0.1667584440478901</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03896938185174259</v>
+        <v>0.03400842602984999</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="n">
-        <v>791473961.3268033</v>
       </c>
     </row>
     <row r="50">
@@ -2122,28 +1824,22 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3842847738.135414</v>
+        <v>2823761452.04955</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1089832421848248</v>
+        <v>0.1576010625038529</v>
       </c>
       <c r="G50" t="n">
-        <v>0.0475106043738992</v>
+        <v>0.05130847250139388</v>
       </c>
       <c r="H50" t="b">
-        <v>1</v>
-      </c>
-      <c r="I50" t="n">
-        <v>133</v>
-      </c>
-      <c r="J50" t="n">
-        <v>1921423868.970254</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51">
@@ -2156,28 +1852,22 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1453354349.09351</v>
+        <v>1481190025.631026</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1844865877658617</v>
+        <v>0.1464328883195093</v>
       </c>
       <c r="G51" t="n">
-        <v>0.04029298332047997</v>
+        <v>0.03629711799759432</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="n">
-        <v>726677185.0571612</v>
       </c>
     </row>
     <row r="52">
@@ -2196,22 +1886,16 @@
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>3239204696.895391</v>
+        <v>3668292060.464118</v>
       </c>
       <c r="F52" t="n">
-        <v>0.09527880383325044</v>
+        <v>0.1098925897215487</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04536503753603617</v>
+        <v>0.04366578206838368</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
-      </c>
-      <c r="I52" t="n">
-        <v>160</v>
-      </c>
-      <c r="J52" t="n">
-        <v>1619602449.715151</v>
       </c>
     </row>
     <row r="53">
@@ -2224,28 +1908,22 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3793092185.425805</v>
+        <v>2904758747.17569</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1707359536061311</v>
+        <v>0.1341552655027666</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02666362681064516</v>
+        <v>0.03256153646633431</v>
       </c>
       <c r="H53" t="b">
-        <v>1</v>
-      </c>
-      <c r="I53" t="n">
-        <v>111</v>
-      </c>
-      <c r="J53" t="n">
-        <v>1896546070.420068</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54">
@@ -2258,28 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3797674125.326568</v>
+        <v>3970824306.593821</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1341161125005827</v>
+        <v>0.1200912489150309</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04978227070242895</v>
+        <v>0.0344652443657977</v>
       </c>
       <c r="H54" t="b">
         <v>1</v>
-      </c>
-      <c r="I54" t="n">
-        <v>126</v>
-      </c>
-      <c r="J54" t="n">
-        <v>1898837110.859085</v>
       </c>
     </row>
     <row r="55">
@@ -2292,28 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3710290215.01872</v>
+        <v>4898552924.573186</v>
       </c>
       <c r="F55" t="n">
-        <v>0.2020420201021274</v>
+        <v>0.2212937636947301</v>
       </c>
       <c r="G55" t="n">
-        <v>0.03111654560516802</v>
+        <v>0.02265200715463601</v>
       </c>
       <c r="H55" t="b">
         <v>0</v>
-      </c>
-      <c r="I55" t="n">
-        <v>114</v>
-      </c>
-      <c r="J55" t="n">
-        <v>1855145069.625349</v>
       </c>
     </row>
     <row r="56">
@@ -2326,28 +1992,22 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1872723465.071133</v>
+        <v>1438584981.201949</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1626695710732535</v>
+        <v>0.1126424035076298</v>
       </c>
       <c r="G56" t="n">
-        <v>0.05399713569029178</v>
+        <v>0.0457480727631903</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="n">
-        <v>936361719.5540327</v>
       </c>
     </row>
     <row r="57">
@@ -2360,28 +2020,22 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3037741604.715047</v>
+        <v>3858795972.227076</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1548651860231018</v>
+        <v>0.153076239607663</v>
       </c>
       <c r="G57" t="n">
-        <v>0.0237304387379085</v>
+        <v>0.02661872006007109</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
-      </c>
-      <c r="I57" t="n">
-        <v>123</v>
-      </c>
-      <c r="J57" t="n">
-        <v>1518870809.94331</v>
       </c>
     </row>
     <row r="58">
@@ -2394,28 +2048,22 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1779777650.9136</v>
+        <v>1209899739.8818</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1322257845928306</v>
+        <v>0.1222129709834211</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03362847381348526</v>
+        <v>0.0332396077898577</v>
       </c>
       <c r="H58" t="b">
-        <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="n">
-        <v>889888831.0699965</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59">
@@ -2428,28 +2076,22 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>5034679099.582284</v>
+        <v>4974113801.282883</v>
       </c>
       <c r="F59" t="n">
-        <v>0.09090936519356815</v>
+        <v>0.1098663243424586</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04305435270424741</v>
+        <v>0.03183926677355273</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
-      </c>
-      <c r="I59" t="n">
-        <v>109</v>
-      </c>
-      <c r="J59" t="n">
-        <v>2517339475.851351</v>
       </c>
     </row>
     <row r="60">
@@ -2462,28 +2104,22 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2788234442.573713</v>
+        <v>2328887822.681809</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1323467702111048</v>
+        <v>0.154406799899341</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02335721657425106</v>
+        <v>0.02867826893359784</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
-      </c>
-      <c r="I60" t="n">
-        <v>122</v>
-      </c>
-      <c r="J60" t="n">
-        <v>1394117269.435474</v>
       </c>
     </row>
     <row r="61">
@@ -2496,28 +2132,22 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2628502427.955844</v>
+        <v>3137290589.773795</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1598171271534581</v>
+        <v>0.118278189170086</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02204453321362796</v>
+        <v>0.03090487315725605</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
-      </c>
-      <c r="I61" t="n">
-        <v>134</v>
-      </c>
-      <c r="J61" t="n">
-        <v>1314251229.494006</v>
       </c>
     </row>
     <row r="62">
@@ -2530,28 +2160,22 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1893908954.325751</v>
+        <v>1607893026.789369</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1627371895787374</v>
+        <v>0.1526889519681437</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03983383230195974</v>
+        <v>0.03152285464166802</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="n">
-        <v>946954519.3267471</v>
       </c>
     </row>
     <row r="63">
@@ -2564,28 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4157813697.806613</v>
+        <v>4874445577.700576</v>
       </c>
       <c r="F63" t="n">
-        <v>0.1055499699170708</v>
+        <v>0.09608050739346811</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03773343074163725</v>
+        <v>0.04362160209243158</v>
       </c>
       <c r="H63" t="b">
-        <v>0</v>
-      </c>
-      <c r="I63" t="n">
-        <v>111</v>
-      </c>
-      <c r="J63" t="n">
-        <v>2078906904.238567</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
@@ -2598,28 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>3953779911.374094</v>
+        <v>5241102217.983699</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1697735097026878</v>
+        <v>0.1850437138260033</v>
       </c>
       <c r="G64" t="n">
-        <v>0.03560767249250575</v>
+        <v>0.03420412715286088</v>
       </c>
       <c r="H64" t="b">
         <v>0</v>
-      </c>
-      <c r="I64" t="n">
-        <v>121</v>
-      </c>
-      <c r="J64" t="n">
-        <v>1976889988.312717</v>
       </c>
     </row>
     <row r="65">
@@ -2638,22 +2250,16 @@
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4763213155.638904</v>
+        <v>4096415034.293948</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1254169441012846</v>
+        <v>0.1056041644734438</v>
       </c>
       <c r="G65" t="n">
-        <v>0.03007976210201721</v>
+        <v>0.01948460360987928</v>
       </c>
       <c r="H65" t="b">
         <v>0</v>
-      </c>
-      <c r="I65" t="n">
-        <v>139</v>
-      </c>
-      <c r="J65" t="n">
-        <v>2381606550.871072</v>
       </c>
     </row>
     <row r="66">
@@ -2672,22 +2278,16 @@
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>5295041711.003047</v>
+        <v>5192794184.901634</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1149542413874975</v>
+        <v>0.1036227974307059</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04399547492563666</v>
+        <v>0.04550021053812348</v>
       </c>
       <c r="H66" t="b">
-        <v>1</v>
-      </c>
-      <c r="I66" t="n">
-        <v>114</v>
-      </c>
-      <c r="J66" t="n">
-        <v>2647520898.451984</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67">
@@ -2700,28 +2300,22 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>3214819006.544766</v>
+        <v>3247090638.239176</v>
       </c>
       <c r="F67" t="n">
-        <v>0.08626334880759091</v>
+        <v>0.09454053448465712</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04116729818338666</v>
+        <v>0.03741850959386775</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
-      </c>
-      <c r="I67" t="n">
-        <v>125</v>
-      </c>
-      <c r="J67" t="n">
-        <v>1607409503.393113</v>
       </c>
     </row>
     <row r="68">
@@ -2740,22 +2334,16 @@
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5982577218.500923</v>
+        <v>4840652453.460348</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1380464119266392</v>
+        <v>0.1045592116141858</v>
       </c>
       <c r="G68" t="n">
-        <v>0.03116561734763727</v>
+        <v>0.04247551261837269</v>
       </c>
       <c r="H68" t="b">
         <v>0</v>
-      </c>
-      <c r="I68" t="n">
-        <v>126</v>
-      </c>
-      <c r="J68" t="n">
-        <v>2991288725.189612</v>
       </c>
     </row>
     <row r="69">
@@ -2768,28 +2356,22 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2453891212.877484</v>
+        <v>1740240724.495794</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1133957936311434</v>
+        <v>0.1250533850335595</v>
       </c>
       <c r="G69" t="n">
-        <v>0.05421167894110455</v>
+        <v>0.05745229681143852</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
-      </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="n">
-        <v>1226945670.118752</v>
       </c>
     </row>
     <row r="70">
@@ -2802,28 +2384,22 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3732316922.938805</v>
+        <v>2454059913.951124</v>
       </c>
       <c r="F70" t="n">
-        <v>0.09528439993885826</v>
+        <v>0.09457428459678828</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03627287255143403</v>
+        <v>0.03668587694155624</v>
       </c>
       <c r="H70" t="b">
-        <v>0</v>
-      </c>
-      <c r="I70" t="n">
-        <v>111</v>
-      </c>
-      <c r="J70" t="n">
-        <v>1866158486.090089</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71">
@@ -2842,22 +2418,16 @@
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>3962740733.891434</v>
+        <v>4955568188.02612</v>
       </c>
       <c r="F71" t="n">
-        <v>0.164957825337965</v>
+        <v>0.1631274450856911</v>
       </c>
       <c r="G71" t="n">
-        <v>0.03255154308131026</v>
+        <v>0.03353659926024569</v>
       </c>
       <c r="H71" t="b">
-        <v>1</v>
-      </c>
-      <c r="I71" t="n">
-        <v>141</v>
-      </c>
-      <c r="J71" t="n">
-        <v>1981370395.214498</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72">
@@ -2870,28 +2440,22 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>2234079177.999797</v>
+        <v>2060304286.580981</v>
       </c>
       <c r="F72" t="n">
-        <v>0.08002101527707196</v>
+        <v>0.08924016190048015</v>
       </c>
       <c r="G72" t="n">
-        <v>0.03736053683067718</v>
+        <v>0.03414923613403828</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="n">
-        <v>1117039497.624219</v>
       </c>
     </row>
     <row r="73">
@@ -2904,28 +2468,22 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2184356003.376189</v>
+        <v>3286789703.106464</v>
       </c>
       <c r="F73" t="n">
-        <v>0.07984469992498046</v>
+        <v>0.07870097951773673</v>
       </c>
       <c r="G73" t="n">
-        <v>0.05243394863244223</v>
+        <v>0.05221250761761204</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
-      </c>
-      <c r="I73" t="n">
-        <v>148</v>
-      </c>
-      <c r="J73" t="n">
-        <v>1092178072.3776</v>
       </c>
     </row>
     <row r="74">
@@ -2938,28 +2496,22 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3480233551.54437</v>
+        <v>2666936010.428417</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1497444468798187</v>
+        <v>0.178569038824699</v>
       </c>
       <c r="G74" t="n">
-        <v>0.03039247387568961</v>
+        <v>0.02435685296454076</v>
       </c>
       <c r="H74" t="b">
-        <v>1</v>
-      </c>
-      <c r="I74" t="n">
-        <v>132</v>
-      </c>
-      <c r="J74" t="n">
-        <v>1740116799.688879</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75">
@@ -2972,28 +2524,22 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2094482119.166693</v>
+        <v>2252475799.681328</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1585309831838741</v>
+        <v>0.1017406284807637</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02318885798362067</v>
+        <v>0.03683312593203757</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
-      </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="n">
-        <v>1047241014.873999</v>
       </c>
     </row>
     <row r="76">
@@ -3012,22 +2558,16 @@
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4226774139.282946</v>
+        <v>4799456649.217936</v>
       </c>
       <c r="F76" t="n">
-        <v>0.0800344698367679</v>
+        <v>0.104652497341688</v>
       </c>
       <c r="G76" t="n">
-        <v>0.03115194197002303</v>
+        <v>0.02628094906377747</v>
       </c>
       <c r="H76" t="b">
-        <v>0</v>
-      </c>
-      <c r="I76" t="n">
-        <v>90</v>
-      </c>
-      <c r="J76" t="n">
-        <v>2113387063.881398</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -3040,28 +2580,22 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>2021445099.980863</v>
+        <v>1913292973.320689</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1553763874145311</v>
+        <v>0.1746726798129758</v>
       </c>
       <c r="G77" t="n">
-        <v>0.01917656861944851</v>
+        <v>0.02219836166992543</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="n">
-        <v>1010722614.660755</v>
       </c>
     </row>
     <row r="78">
@@ -3074,28 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4637484734.64919</v>
+        <v>3801523786.319972</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1111760631828899</v>
+        <v>0.1117484358468249</v>
       </c>
       <c r="G78" t="n">
-        <v>0.04129550838313911</v>
+        <v>0.04857886393847977</v>
       </c>
       <c r="H78" t="b">
         <v>0</v>
-      </c>
-      <c r="I78" t="n">
-        <v>135</v>
-      </c>
-      <c r="J78" t="n">
-        <v>2318742287.441845</v>
       </c>
     </row>
     <row r="79">
@@ -3114,22 +2642,16 @@
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1492454853.498384</v>
+        <v>1789307493.035575</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1117183440625455</v>
+        <v>0.1694532328530556</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03094995898258968</v>
+        <v>0.03713810569090923</v>
       </c>
       <c r="H79" t="b">
-        <v>0</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="n">
-        <v>746227459.6682575</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80">
@@ -3142,28 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4125330810.987123</v>
+        <v>3841967477.78981</v>
       </c>
       <c r="F80" t="n">
-        <v>0.09866945786357123</v>
+        <v>0.1021979130114754</v>
       </c>
       <c r="G80" t="n">
-        <v>0.0363888621528232</v>
+        <v>0.02914941875299723</v>
       </c>
       <c r="H80" t="b">
         <v>0</v>
-      </c>
-      <c r="I80" t="n">
-        <v>85</v>
-      </c>
-      <c r="J80" t="n">
-        <v>2062665411.209332</v>
       </c>
     </row>
     <row r="81">
@@ -3176,28 +2692,22 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4529868900.73348</v>
+        <v>5198243950.656937</v>
       </c>
       <c r="F81" t="n">
-        <v>0.100123082321613</v>
+        <v>0.1266880189276853</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02433766438726033</v>
+        <v>0.02909614665238879</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
-      </c>
-      <c r="I81" t="n">
-        <v>89</v>
-      </c>
-      <c r="J81" t="n">
-        <v>2264934433.261974</v>
       </c>
     </row>
     <row r="82">
@@ -3210,28 +2720,22 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>5335904251.880671</v>
+        <v>3846773239.69359</v>
       </c>
       <c r="F82" t="n">
-        <v>0.170415674467311</v>
+        <v>0.1854407992500431</v>
       </c>
       <c r="G82" t="n">
-        <v>0.0293741706766925</v>
+        <v>0.0251729072955476</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
-      </c>
-      <c r="I82" t="n">
-        <v>136</v>
-      </c>
-      <c r="J82" t="n">
-        <v>2667952091.139601</v>
       </c>
     </row>
     <row r="83">
@@ -3244,28 +2748,22 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1666465798.664832</v>
+        <v>1912283654.393414</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1325038827609198</v>
+        <v>0.1413847490047646</v>
       </c>
       <c r="G83" t="n">
-        <v>0.04390393167229188</v>
+        <v>0.04333701250161608</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
-      </c>
-      <c r="I83" t="n">
-        <v>1</v>
-      </c>
-      <c r="J83" t="n">
-        <v>833232843.1110318</v>
       </c>
     </row>
     <row r="84">
@@ -3278,28 +2776,22 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2548385263.709042</v>
+        <v>2586477908.956345</v>
       </c>
       <c r="F84" t="n">
-        <v>0.07424300247627887</v>
+        <v>0.09715122908453515</v>
       </c>
       <c r="G84" t="n">
-        <v>0.0503717885330275</v>
+        <v>0.0467836780958738</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>5</v>
-      </c>
-      <c r="J84" t="n">
-        <v>1274192556.552022</v>
       </c>
     </row>
     <row r="85">
@@ -3312,28 +2804,22 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2760783036.50292</v>
+        <v>2806066093.505781</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1463059338627517</v>
+        <v>0.1459308646080435</v>
       </c>
       <c r="G85" t="n">
-        <v>0.04318560843286629</v>
+        <v>0.04007599632092332</v>
       </c>
       <c r="H85" t="b">
         <v>1</v>
-      </c>
-      <c r="I85" t="n">
-        <v>146</v>
-      </c>
-      <c r="J85" t="n">
-        <v>1380391551.986587</v>
       </c>
     </row>
     <row r="86">
@@ -3352,22 +2838,16 @@
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2324558076.414148</v>
+        <v>2072626441.209848</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1599696128856654</v>
+        <v>0.1467585209449962</v>
       </c>
       <c r="G86" t="n">
-        <v>0.01661412892625039</v>
+        <v>0.01800010993747298</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
-      </c>
-      <c r="I86" t="n">
-        <v>51</v>
-      </c>
-      <c r="J86" t="n">
-        <v>1162279110.965229</v>
       </c>
     </row>
     <row r="87">
@@ -3380,28 +2860,22 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1165326306.534059</v>
+        <v>1282634606.218158</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1813677754821961</v>
+        <v>0.1830396199342746</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03086086611567574</v>
+        <v>0.0413438578997766</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="n">
-        <v>582663199.974295</v>
       </c>
     </row>
     <row r="88">
@@ -3414,28 +2888,22 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2481307166.449644</v>
+        <v>3140639266.922672</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1326285654104104</v>
+        <v>0.1276182999618623</v>
       </c>
       <c r="G88" t="n">
-        <v>0.0332888854883699</v>
+        <v>0.02825027071304508</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
-      </c>
-      <c r="I88" t="n">
-        <v>153</v>
-      </c>
-      <c r="J88" t="n">
-        <v>1240653562.435915</v>
       </c>
     </row>
     <row r="89">
@@ -3448,28 +2916,22 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2122718982.888585</v>
+        <v>2693233677.141084</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1289182629749618</v>
+        <v>0.1378510395220864</v>
       </c>
       <c r="G89" t="n">
-        <v>0.04114241366902117</v>
+        <v>0.03663401624507136</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
-      </c>
-      <c r="I89" t="n">
-        <v>131</v>
-      </c>
-      <c r="J89" t="n">
-        <v>1061359593.873983</v>
       </c>
     </row>
     <row r="90">
@@ -3488,22 +2950,16 @@
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>2024644160.067745</v>
+        <v>1886270397.365171</v>
       </c>
       <c r="F90" t="n">
-        <v>0.08334404764963171</v>
+        <v>0.09724016283461374</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04601415373431882</v>
+        <v>0.04937354942696723</v>
       </c>
       <c r="H90" t="b">
-        <v>0</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="n">
-        <v>1012322154.77383</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91">
@@ -3516,28 +2972,22 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>2036891903.298318</v>
+        <v>1803908204.101028</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1755129535542205</v>
+        <v>0.1502178618354944</v>
       </c>
       <c r="G91" t="n">
-        <v>0.06047816974577747</v>
+        <v>0.04542640308254003</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="n">
-        <v>1018445918.995511</v>
       </c>
     </row>
     <row r="92">
@@ -3550,28 +3000,22 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2263093919.373189</v>
+        <v>2626408470.234277</v>
       </c>
       <c r="F92" t="n">
-        <v>0.0869361816639625</v>
+        <v>0.1020698156387786</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03123620792662309</v>
+        <v>0.03485286863269046</v>
       </c>
       <c r="H92" t="b">
-        <v>0</v>
-      </c>
-      <c r="I92" t="n">
-        <v>110</v>
-      </c>
-      <c r="J92" t="n">
-        <v>1131546925.732733</v>
+        <v>1</v>
       </c>
     </row>
     <row r="93">
@@ -3584,28 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3084820358.498792</v>
+        <v>4932939909.816832</v>
       </c>
       <c r="F93" t="n">
-        <v>0.08856398435213104</v>
+        <v>0.1023862109645693</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04798871782420334</v>
+        <v>0.03559517699658649</v>
       </c>
       <c r="H93" t="b">
-        <v>1</v>
-      </c>
-      <c r="I93" t="n">
-        <v>118</v>
-      </c>
-      <c r="J93" t="n">
-        <v>1542410239.059835</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94">
@@ -3618,28 +3056,22 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1787031483.71131</v>
+        <v>2125666609.145133</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1219520739156018</v>
+        <v>0.1138855089135242</v>
       </c>
       <c r="G94" t="n">
-        <v>0.02924865576811556</v>
+        <v>0.03128451605412894</v>
       </c>
       <c r="H94" t="b">
-        <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>2</v>
-      </c>
-      <c r="J94" t="n">
-        <v>893515712.557734</v>
+        <v>1</v>
       </c>
     </row>
     <row r="95">
@@ -3652,28 +3084,22 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2376601464.165366</v>
+        <v>2063783836.986665</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1320814247437627</v>
+        <v>0.1060769144748283</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04694021086267703</v>
+        <v>0.05086547561518124</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
-      </c>
-      <c r="I95" t="n">
-        <v>95</v>
-      </c>
-      <c r="J95" t="n">
-        <v>1188300777.151318</v>
       </c>
     </row>
     <row r="96">
@@ -3686,28 +3112,22 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1577029845.490788</v>
+        <v>1451475602.021642</v>
       </c>
       <c r="F96" t="n">
-        <v>0.09092721826380837</v>
+        <v>0.1262285942820986</v>
       </c>
       <c r="G96" t="n">
-        <v>0.04319246517564875</v>
+        <v>0.03146918421875271</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="n">
-        <v>788514954.8820012</v>
       </c>
     </row>
     <row r="97">
@@ -3720,28 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4691873420.587106</v>
+        <v>5308601456.41179</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1638065775861623</v>
+        <v>0.1681174158961347</v>
       </c>
       <c r="G97" t="n">
-        <v>0.0224056571181495</v>
+        <v>0.02273388439820871</v>
       </c>
       <c r="H97" t="b">
-        <v>0</v>
-      </c>
-      <c r="I97" t="n">
-        <v>125</v>
-      </c>
-      <c r="J97" t="n">
-        <v>2345936822.336639</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
@@ -3754,28 +3168,22 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3587239796.532972</v>
+        <v>2477084008.984982</v>
       </c>
       <c r="F98" t="n">
-        <v>0.08746948155860536</v>
+        <v>0.09755372779887787</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02137960652121841</v>
+        <v>0.02203489936116408</v>
       </c>
       <c r="H98" t="b">
-        <v>1</v>
-      </c>
-      <c r="I98" t="n">
-        <v>104</v>
-      </c>
-      <c r="J98" t="n">
-        <v>1793619922.829165</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99">
@@ -3794,22 +3202,16 @@
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2721703538.591557</v>
+        <v>2938046485.204593</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1453948982260613</v>
+        <v>0.1160994976202259</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02459993257181966</v>
+        <v>0.02658237311783151</v>
       </c>
       <c r="H99" t="b">
-        <v>1</v>
-      </c>
-      <c r="I99" t="n">
-        <v>123</v>
-      </c>
-      <c r="J99" t="n">
-        <v>1360851735.146765</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100">
@@ -3822,28 +3224,22 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3215639554.414261</v>
+        <v>3382321521.641076</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1620562798916509</v>
+        <v>0.1639443928776251</v>
       </c>
       <c r="G100" t="n">
-        <v>0.019454808173168</v>
+        <v>0.0234913941681745</v>
       </c>
       <c r="H100" t="b">
-        <v>1</v>
-      </c>
-      <c r="I100" t="n">
-        <v>118</v>
-      </c>
-      <c r="J100" t="n">
-        <v>1607819785.27763</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101">
@@ -3862,22 +3258,16 @@
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2668412845.042447</v>
+        <v>3471716868.915391</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1877724632467348</v>
+        <v>0.2074984732300637</v>
       </c>
       <c r="G101" t="n">
-        <v>0.03893360944531449</v>
+        <v>0.05588447716998562</v>
       </c>
       <c r="H101" t="b">
-        <v>0</v>
-      </c>
-      <c r="I101" t="n">
-        <v>159</v>
-      </c>
-      <c r="J101" t="n">
-        <v>1334206467.776075</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_389.xlsx
+++ b/output/fit_clients/fit_round_389.xlsx
@@ -480,19 +480,19 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2474861665.26204</v>
+        <v>1777351309.906685</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0802135490202871</v>
+        <v>0.08684948831048796</v>
       </c>
       <c r="G2" t="n">
-        <v>0.02910781359586656</v>
+        <v>0.02924581720194511</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
@@ -508,19 +508,19 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2428374186.078491</v>
+        <v>2133226795.478702</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1200026963649197</v>
+        <v>0.1753491096325716</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03199981898335771</v>
+        <v>0.03541877591618471</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
@@ -536,19 +536,19 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>5204128724.279286</v>
+        <v>3949043115.754802</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1298922322189045</v>
+        <v>0.139440182362827</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02456397714219635</v>
+        <v>0.03422450223983129</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
@@ -564,19 +564,19 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3881930294.05572</v>
+        <v>3236055358.352595</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1002005662169641</v>
+        <v>0.06687780208357015</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03153224272928361</v>
+        <v>0.03985922550042609</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
@@ -592,19 +592,19 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2852133149.245607</v>
+        <v>2197861852.660091</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1431813235014106</v>
+        <v>0.1451067690583657</v>
       </c>
       <c r="G6" t="n">
-        <v>0.05649944974413559</v>
+        <v>0.05076033601673791</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
@@ -626,13 +626,13 @@
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2599873798.548706</v>
+        <v>1936007316.952319</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0997723465192102</v>
+        <v>0.08602269292766269</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04361654569106254</v>
+        <v>0.04450019110699747</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
@@ -648,19 +648,19 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>2622475670.245391</v>
+        <v>2770006477.717258</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1707300959296179</v>
+        <v>0.2004493391348753</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02883949344203311</v>
+        <v>0.03226819868861107</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
@@ -676,19 +676,19 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1988433593.756227</v>
+        <v>2080055060.633674</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1587275666143505</v>
+        <v>0.1407500902521611</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0264851857523985</v>
+        <v>0.02423664418353148</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
@@ -710,16 +710,16 @@
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>5468469927.780749</v>
+        <v>5808643187.569796</v>
       </c>
       <c r="F10" t="n">
-        <v>0.187446012409219</v>
+        <v>0.1481081093606567</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04042403492222515</v>
+        <v>0.035857364095945</v>
       </c>
       <c r="H10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -732,19 +732,19 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3983945219.242286</v>
+        <v>3195839394.814139</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1408890842747247</v>
+        <v>0.1822917643435463</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04109380372875614</v>
+        <v>0.03277795446196796</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
@@ -760,19 +760,19 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>3009885858.466002</v>
+        <v>2047949154.681428</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1679763150369353</v>
+        <v>0.1860982872217521</v>
       </c>
       <c r="G12" t="n">
-        <v>0.05294156146531351</v>
+        <v>0.03430721165657135</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
@@ -788,22 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>3562749949.447238</v>
+        <v>4821453044.71876</v>
       </c>
       <c r="F13" t="n">
-        <v>0.09735563434451071</v>
+        <v>0.09453179678137152</v>
       </c>
       <c r="G13" t="n">
-        <v>0.0274245047542697</v>
+        <v>0.03087965896485261</v>
       </c>
       <c r="H13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -822,13 +822,13 @@
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3768294426.310411</v>
+        <v>2373240582.981045</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1643454629354453</v>
+        <v>0.1347835833448543</v>
       </c>
       <c r="G14" t="n">
-        <v>0.04074801695069294</v>
+        <v>0.02973688658102233</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
@@ -844,19 +844,19 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1558154685.504079</v>
+        <v>1586883101.962525</v>
       </c>
       <c r="F15" t="n">
-        <v>0.06656351230303352</v>
+        <v>0.09650118412818579</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04903200231206082</v>
+        <v>0.04562157577705168</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
@@ -872,19 +872,19 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2050035049.499894</v>
+        <v>2289747486.256682</v>
       </c>
       <c r="F16" t="n">
-        <v>0.09973668971398519</v>
+        <v>0.08955216226210491</v>
       </c>
       <c r="G16" t="n">
-        <v>0.05054812956384223</v>
+        <v>0.04994981399214812</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
@@ -906,13 +906,13 @@
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>3516818803.927348</v>
+        <v>3401273741.363185</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1590603494182991</v>
+        <v>0.1299101640639734</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04645775581423282</v>
+        <v>0.04340975678041245</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
@@ -928,19 +928,19 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3658635348.236783</v>
+        <v>3576660655.374837</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1175043133518168</v>
+        <v>0.1624386094044477</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02244905001611</v>
+        <v>0.02122921576537148</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
@@ -956,19 +956,19 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1308024791.818297</v>
+        <v>1277203553.393098</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1845551980905541</v>
+        <v>0.1170513602178831</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02650406347046372</v>
+        <v>0.02465393861738029</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
@@ -984,19 +984,19 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>1704525711.99319</v>
+        <v>2027456599.345711</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1436517251734654</v>
+        <v>0.1456419738555499</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02970928119227703</v>
+        <v>0.02230864482139824</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
@@ -1012,19 +1012,19 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2234965350.048105</v>
+        <v>2598686668.28228</v>
       </c>
       <c r="F21" t="n">
-        <v>0.08481735832690432</v>
+        <v>0.09528950011219477</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03178347491090818</v>
+        <v>0.0443430546330048</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
@@ -1046,13 +1046,13 @@
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>2515825198.485035</v>
+        <v>3362174719.942693</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1170621104577722</v>
+        <v>0.114498738972386</v>
       </c>
       <c r="G22" t="n">
-        <v>0.05440531937454166</v>
+        <v>0.05044772761922759</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
@@ -1068,19 +1068,19 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1546493992.536865</v>
+        <v>1307729640.44361</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1408637190054015</v>
+        <v>0.1389673524950182</v>
       </c>
       <c r="G23" t="n">
-        <v>0.049485950211459</v>
+        <v>0.04462474662506161</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
@@ -1096,22 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>2808329161.835726</v>
+        <v>3629680709.901549</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1169588625137004</v>
+        <v>0.1098731994019713</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03637020535651465</v>
+        <v>0.03729641446939242</v>
       </c>
       <c r="H24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -1124,19 +1124,19 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1319427789.11333</v>
+        <v>962003417.1786492</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1186856205382284</v>
+        <v>0.1055478781558418</v>
       </c>
       <c r="G25" t="n">
-        <v>0.01905766892485069</v>
+        <v>0.0251927470423427</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
@@ -1152,22 +1152,22 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>944813274.5111929</v>
+        <v>937069675.1102076</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1013861656597282</v>
+        <v>0.1146570960807416</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02445811172654847</v>
+        <v>0.03303502835292139</v>
       </c>
       <c r="H26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -1186,16 +1186,16 @@
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3297841711.238322</v>
+        <v>4325813515.360295</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1284658563949677</v>
+        <v>0.117758433474491</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02315478227317232</v>
+        <v>0.02462097852501169</v>
       </c>
       <c r="H27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -1208,19 +1208,19 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2513314749.647698</v>
+        <v>2722207522.1218</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1403352941868037</v>
+        <v>0.09510985798013537</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04203875030469921</v>
+        <v>0.04964123608587601</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
@@ -1242,16 +1242,16 @@
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4488404244.329107</v>
+        <v>3677343888.734417</v>
       </c>
       <c r="F29" t="n">
-        <v>0.09346836232027525</v>
+        <v>0.1455251044629462</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03350195919558655</v>
+        <v>0.03469035024989935</v>
       </c>
       <c r="H29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -1264,22 +1264,22 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1747499336.844972</v>
+        <v>1538333583.608613</v>
       </c>
       <c r="F30" t="n">
-        <v>0.0998255138498499</v>
+        <v>0.1092154508746074</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03920521974809584</v>
+        <v>0.02433180921756648</v>
       </c>
       <c r="H30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -1292,19 +1292,19 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1255500385.623208</v>
+        <v>1347660228.529501</v>
       </c>
       <c r="F31" t="n">
-        <v>0.07246824547108306</v>
+        <v>0.09999062359777655</v>
       </c>
       <c r="G31" t="n">
-        <v>0.03991351864136422</v>
+        <v>0.03204927310304666</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
@@ -1320,19 +1320,19 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1156484216.443916</v>
+        <v>1393455820.588443</v>
       </c>
       <c r="F32" t="n">
-        <v>0.08880125352608324</v>
+        <v>0.09654905456242276</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03484997021040748</v>
+        <v>0.02342148400500877</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
@@ -1348,19 +1348,19 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2140051597.200013</v>
+        <v>3104781628.393809</v>
       </c>
       <c r="F33" t="n">
-        <v>0.2052385425358262</v>
+        <v>0.1549022138487024</v>
       </c>
       <c r="G33" t="n">
-        <v>0.04090565039266815</v>
+        <v>0.03876044418303398</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
@@ -1376,19 +1376,19 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1303870244.73313</v>
+        <v>1126656626.359321</v>
       </c>
       <c r="F34" t="n">
-        <v>0.08516802795973311</v>
+        <v>0.0833776701965273</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02266083351111046</v>
+        <v>0.01736813080702041</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
@@ -1404,19 +1404,19 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1224833876.470961</v>
+        <v>962025423.0321372</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1174233622721317</v>
+        <v>0.1152054933867483</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03431423392777891</v>
+        <v>0.032056510340175</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
@@ -1432,19 +1432,19 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2554065457.965821</v>
+        <v>2526355815.435511</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1488795558546289</v>
+        <v>0.1572276269340997</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02409921335440072</v>
+        <v>0.02802271985900452</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
@@ -1460,22 +1460,22 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>1862105331.505492</v>
+        <v>2371921386.821809</v>
       </c>
       <c r="F37" t="n">
-        <v>0.1104256581026927</v>
+        <v>0.09370442466675505</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03358831614553102</v>
+        <v>0.03508179840006062</v>
       </c>
       <c r="H37" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -1488,19 +1488,19 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1644457805.517199</v>
+        <v>1713287378.654</v>
       </c>
       <c r="F38" t="n">
-        <v>0.07498526882592106</v>
+        <v>0.08135646341071154</v>
       </c>
       <c r="G38" t="n">
-        <v>0.0321636714500908</v>
+        <v>0.03382155599158123</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
@@ -1516,19 +1516,19 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1724076795.821243</v>
+        <v>1454418430.063815</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1420913913165919</v>
+        <v>0.1586437892854999</v>
       </c>
       <c r="G39" t="n">
-        <v>0.03020265126708124</v>
+        <v>0.02731317388231142</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
@@ -1544,22 +1544,22 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1136606825.02007</v>
+        <v>1629076546.22234</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1606298103164581</v>
+        <v>0.1246657251762042</v>
       </c>
       <c r="G40" t="n">
-        <v>0.06023374982485277</v>
+        <v>0.04245647233128471</v>
       </c>
       <c r="H40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -1572,19 +1572,19 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2286211574.559691</v>
+        <v>2162036211.608028</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1398673785884159</v>
+        <v>0.140267524916772</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03200787702081662</v>
+        <v>0.02890159305894265</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
@@ -1600,22 +1600,22 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3183017685.749193</v>
+        <v>3184310115.664472</v>
       </c>
       <c r="F42" t="n">
-        <v>0.07906856116733647</v>
+        <v>0.1045611522011155</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03314568156281713</v>
+        <v>0.03218495293745284</v>
       </c>
       <c r="H42" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -1628,22 +1628,22 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2650700777.214695</v>
+        <v>2630633216.859614</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1372331463080786</v>
+        <v>0.1298906756030977</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02323105394616845</v>
+        <v>0.01872570190367491</v>
       </c>
       <c r="H43" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -1656,19 +1656,19 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1839134828.37662</v>
+        <v>2278766583.903592</v>
       </c>
       <c r="F44" t="n">
-        <v>0.09943357481683832</v>
+        <v>0.06243238490077423</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02912440902564866</v>
+        <v>0.03440611038442182</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
@@ -1684,22 +1684,22 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1744242144.426304</v>
+        <v>1963991631.216281</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1696642176520574</v>
+        <v>0.1664075075029508</v>
       </c>
       <c r="G45" t="n">
-        <v>0.03401356834588969</v>
+        <v>0.04905127804479265</v>
       </c>
       <c r="H45" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -1712,22 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>5510774732.345835</v>
+        <v>5716300752.346795</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1620107270207576</v>
+        <v>0.133703645205787</v>
       </c>
       <c r="G46" t="n">
-        <v>0.06114886127526878</v>
+        <v>0.05629317538022623</v>
       </c>
       <c r="H46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -1740,22 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>5005652917.445296</v>
+        <v>4531195207.764441</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1236569328814549</v>
+        <v>0.1818776060507357</v>
       </c>
       <c r="G47" t="n">
-        <v>0.04788406735630048</v>
+        <v>0.04110387385602349</v>
       </c>
       <c r="H47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -1774,16 +1774,16 @@
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3130320020.223207</v>
+        <v>3831426964.983414</v>
       </c>
       <c r="F48" t="n">
-        <v>0.09039388608022252</v>
+        <v>0.0819452120593628</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03909605964546653</v>
+        <v>0.03105524129777799</v>
       </c>
       <c r="H48" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49">
@@ -1802,13 +1802,13 @@
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1593359305.123227</v>
+        <v>1373713007.648501</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1667584440478901</v>
+        <v>0.1888833519175507</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03400842602984999</v>
+        <v>0.02935665287451998</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
@@ -1824,19 +1824,19 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>2823761452.04955</v>
+        <v>3337991435.749929</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1576010625038529</v>
+        <v>0.122502190447094</v>
       </c>
       <c r="G50" t="n">
-        <v>0.05130847250139388</v>
+        <v>0.0430950119183112</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
@@ -1852,19 +1852,19 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1481190025.631026</v>
+        <v>997952645.1677943</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1464328883195093</v>
+        <v>0.1247920898127823</v>
       </c>
       <c r="G51" t="n">
-        <v>0.03629711799759432</v>
+        <v>0.03931111221833999</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
@@ -1880,19 +1880,19 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>3668292060.464118</v>
+        <v>4617871672.831411</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1098925897215487</v>
+        <v>0.1290058162256043</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04366578206838368</v>
+        <v>0.03753897332708629</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
@@ -1908,19 +1908,19 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2904758747.17569</v>
+        <v>3093847952.154194</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1341552655027666</v>
+        <v>0.1391788855038438</v>
       </c>
       <c r="G53" t="n">
-        <v>0.03256153646633431</v>
+        <v>0.02522050899935496</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
@@ -1936,19 +1936,19 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3970824306.593821</v>
+        <v>4366225231.276478</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1200912489150309</v>
+        <v>0.1604157460207352</v>
       </c>
       <c r="G54" t="n">
-        <v>0.0344652443657977</v>
+        <v>0.03747213449277478</v>
       </c>
       <c r="H54" t="b">
         <v>1</v>
@@ -1964,22 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4898552924.573186</v>
+        <v>4338585913.714032</v>
       </c>
       <c r="F55" t="n">
-        <v>0.2212937636947301</v>
+        <v>0.2073512878900351</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02265200715463601</v>
+        <v>0.03242225298156749</v>
       </c>
       <c r="H55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -1992,19 +1992,19 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1438584981.201949</v>
+        <v>1779412655.57195</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1126424035076298</v>
+        <v>0.1025680909802621</v>
       </c>
       <c r="G56" t="n">
-        <v>0.0457480727631903</v>
+        <v>0.03630687893396736</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
@@ -2020,19 +2020,19 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3858795972.227076</v>
+        <v>3602774142.513985</v>
       </c>
       <c r="F57" t="n">
-        <v>0.153076239607663</v>
+        <v>0.1405582138871969</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02661872006007109</v>
+        <v>0.01748817937180238</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
@@ -2054,16 +2054,16 @@
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1209899739.8818</v>
+        <v>1891730554.305149</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1222129709834211</v>
+        <v>0.1578490214031405</v>
       </c>
       <c r="G58" t="n">
-        <v>0.0332396077898577</v>
+        <v>0.03143590603276472</v>
       </c>
       <c r="H58" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59">
@@ -2076,19 +2076,19 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4974113801.282883</v>
+        <v>4285215168.374818</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1098663243424586</v>
+        <v>0.1251748617888215</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03183926677355273</v>
+        <v>0.04557007903075681</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
@@ -2104,19 +2104,19 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2328887822.681809</v>
+        <v>2689469550.364209</v>
       </c>
       <c r="F60" t="n">
-        <v>0.154406799899341</v>
+        <v>0.1960441390265495</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02867826893359784</v>
+        <v>0.02013514498425624</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
@@ -2132,19 +2132,19 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>3137290589.773795</v>
+        <v>2826464059.179113</v>
       </c>
       <c r="F61" t="n">
-        <v>0.118278189170086</v>
+        <v>0.1493476069435275</v>
       </c>
       <c r="G61" t="n">
-        <v>0.03090487315725605</v>
+        <v>0.02387929812038873</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
@@ -2166,13 +2166,13 @@
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1607893026.789369</v>
+        <v>1720477130.517244</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1526889519681437</v>
+        <v>0.1236066119669343</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03152285464166802</v>
+        <v>0.04592065609048492</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
@@ -2188,19 +2188,19 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4874445577.700576</v>
+        <v>4604960084.45788</v>
       </c>
       <c r="F63" t="n">
-        <v>0.09608050739346811</v>
+        <v>0.09672761330664435</v>
       </c>
       <c r="G63" t="n">
-        <v>0.04362160209243158</v>
+        <v>0.03096391924144599</v>
       </c>
       <c r="H63" t="b">
         <v>1</v>
@@ -2216,22 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>5241102217.983699</v>
+        <v>5363807027.143683</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1850437138260033</v>
+        <v>0.1310808740810493</v>
       </c>
       <c r="G64" t="n">
-        <v>0.03420412715286088</v>
+        <v>0.03001433455966908</v>
       </c>
       <c r="H64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
@@ -2244,22 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4096415034.293948</v>
+        <v>5172643775.998468</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1056041644734438</v>
+        <v>0.1576266174440959</v>
       </c>
       <c r="G65" t="n">
-        <v>0.01948460360987928</v>
+        <v>0.02378719473796123</v>
       </c>
       <c r="H65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
@@ -2278,16 +2278,16 @@
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>5192794184.901634</v>
+        <v>3967360225.375585</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1036227974307059</v>
+        <v>0.1442595853771564</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04550021053812348</v>
+        <v>0.03677387847562082</v>
       </c>
       <c r="H66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -2300,19 +2300,19 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>3247090638.239176</v>
+        <v>2557011787.740508</v>
       </c>
       <c r="F67" t="n">
-        <v>0.09454053448465712</v>
+        <v>0.07298427790877804</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03741850959386775</v>
+        <v>0.04445845055223885</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
@@ -2328,22 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>4840652453.460348</v>
+        <v>4688594837.839503</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1045592116141858</v>
+        <v>0.1554526770989936</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04247551261837269</v>
+        <v>0.03304833132209165</v>
       </c>
       <c r="H68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
@@ -2356,19 +2356,19 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1740240724.495794</v>
+        <v>2298518620.33401</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1250533850335595</v>
+        <v>0.1599116829377676</v>
       </c>
       <c r="G69" t="n">
-        <v>0.05745229681143852</v>
+        <v>0.05190145548348404</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
@@ -2384,22 +2384,22 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2454059913.951124</v>
+        <v>3443909955.185324</v>
       </c>
       <c r="F70" t="n">
-        <v>0.09457428459678828</v>
+        <v>0.06419298475064965</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03668587694155624</v>
+        <v>0.03128802864140782</v>
       </c>
       <c r="H70" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71">
@@ -2418,16 +2418,16 @@
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4955568188.02612</v>
+        <v>3645779571.294264</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1631274450856911</v>
+        <v>0.1199542121669472</v>
       </c>
       <c r="G71" t="n">
-        <v>0.03353659926024569</v>
+        <v>0.02301009129594165</v>
       </c>
       <c r="H71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -2440,19 +2440,19 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>2060304286.580981</v>
+        <v>1616326045.473539</v>
       </c>
       <c r="F72" t="n">
-        <v>0.08924016190048015</v>
+        <v>0.09320151505398007</v>
       </c>
       <c r="G72" t="n">
-        <v>0.03414923613403828</v>
+        <v>0.0517168606724198</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
@@ -2468,19 +2468,19 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>3286789703.106464</v>
+        <v>2859859284.403943</v>
       </c>
       <c r="F73" t="n">
-        <v>0.07870097951773673</v>
+        <v>0.08634362139465247</v>
       </c>
       <c r="G73" t="n">
-        <v>0.05221250761761204</v>
+        <v>0.0410874423257722</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
@@ -2496,19 +2496,19 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>2666936010.428417</v>
+        <v>3762567251.718124</v>
       </c>
       <c r="F74" t="n">
-        <v>0.178569038824699</v>
+        <v>0.1143800654900829</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02435685296454076</v>
+        <v>0.02156579711304151</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
@@ -2530,13 +2530,13 @@
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2252475799.681328</v>
+        <v>2148538366.603228</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1017406284807637</v>
+        <v>0.1329925281260689</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03683312593203757</v>
+        <v>0.03760824371622522</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
@@ -2558,13 +2558,13 @@
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4799456649.217936</v>
+        <v>5203839491.168973</v>
       </c>
       <c r="F76" t="n">
-        <v>0.104652497341688</v>
+        <v>0.1188663568000271</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02628094906377747</v>
+        <v>0.03292254616447895</v>
       </c>
       <c r="H76" t="b">
         <v>1</v>
@@ -2586,13 +2586,13 @@
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1913292973.320689</v>
+        <v>1402603788.103543</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1746726798129758</v>
+        <v>0.1558853662781652</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02219836166992543</v>
+        <v>0.02533248187941018</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
@@ -2608,22 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3801523786.319972</v>
+        <v>3488289169.129021</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1117484358468249</v>
+        <v>0.1342784864896579</v>
       </c>
       <c r="G78" t="n">
-        <v>0.04857886393847977</v>
+        <v>0.03709247477625748</v>
       </c>
       <c r="H78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -2636,22 +2636,22 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1789307493.035575</v>
+        <v>1569092898.534736</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1694532328530556</v>
+        <v>0.1693767701816208</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03713810569090923</v>
+        <v>0.03550933283889667</v>
       </c>
       <c r="H79" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80">
@@ -2664,22 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>3841967477.78981</v>
+        <v>3496925229.68059</v>
       </c>
       <c r="F80" t="n">
-        <v>0.1021979130114754</v>
+        <v>0.09495852538733897</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02914941875299723</v>
+        <v>0.02608323635223673</v>
       </c>
       <c r="H80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -2692,19 +2692,19 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>5198243950.656937</v>
+        <v>3416295164.07631</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1266880189276853</v>
+        <v>0.1223335950049029</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02909614665238879</v>
+        <v>0.02521788091733302</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
@@ -2720,19 +2720,19 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>3846773239.69359</v>
+        <v>3918698212.601252</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1854407992500431</v>
+        <v>0.1804264211689359</v>
       </c>
       <c r="G82" t="n">
-        <v>0.0251729072955476</v>
+        <v>0.0215765952031944</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
@@ -2748,19 +2748,19 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1912283654.393414</v>
+        <v>2089024537.070933</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1413847490047646</v>
+        <v>0.1437866955593754</v>
       </c>
       <c r="G83" t="n">
-        <v>0.04333701250161608</v>
+        <v>0.03877297612776684</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
@@ -2776,19 +2776,19 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2586477908.956345</v>
+        <v>1879811311.478464</v>
       </c>
       <c r="F84" t="n">
-        <v>0.09715122908453515</v>
+        <v>0.1155641817116677</v>
       </c>
       <c r="G84" t="n">
-        <v>0.0467836780958738</v>
+        <v>0.04644675223161014</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
@@ -2804,22 +2804,22 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2806066093.505781</v>
+        <v>3201731327.265014</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1459308646080435</v>
+        <v>0.1515979988416808</v>
       </c>
       <c r="G85" t="n">
-        <v>0.04007599632092332</v>
+        <v>0.05521685825902187</v>
       </c>
       <c r="H85" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86">
@@ -2832,19 +2832,19 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2072626441.209848</v>
+        <v>2158276720.62977</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1467585209449962</v>
+        <v>0.1293978449157472</v>
       </c>
       <c r="G86" t="n">
-        <v>0.01800010993747298</v>
+        <v>0.0232682646775729</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
@@ -2860,19 +2860,19 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1282634606.218158</v>
+        <v>1432588343.514632</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1830396199342746</v>
+        <v>0.1304453751062513</v>
       </c>
       <c r="G87" t="n">
-        <v>0.0413438578997766</v>
+        <v>0.0323014068412566</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
@@ -2888,19 +2888,19 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3140639266.922672</v>
+        <v>3036798599.85221</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1276182999618623</v>
+        <v>0.1603045495342056</v>
       </c>
       <c r="G88" t="n">
-        <v>0.02825027071304508</v>
+        <v>0.02723038266148187</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
@@ -2916,19 +2916,19 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2693233677.141084</v>
+        <v>2687874011.877624</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1378510395220864</v>
+        <v>0.1322788993297309</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03663401624507136</v>
+        <v>0.04052691348275689</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
@@ -2950,16 +2950,16 @@
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1886270397.365171</v>
+        <v>1316640710.404244</v>
       </c>
       <c r="F90" t="n">
-        <v>0.09724016283461374</v>
+        <v>0.1321052026127203</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04937354942696723</v>
+        <v>0.03824907974393479</v>
       </c>
       <c r="H90" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91">
@@ -2972,19 +2972,19 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1803908204.101028</v>
+        <v>1549914188.753675</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1502178618354944</v>
+        <v>0.1791451450507633</v>
       </c>
       <c r="G91" t="n">
-        <v>0.04542640308254003</v>
+        <v>0.05298264530109206</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
@@ -3000,22 +3000,22 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2626408470.234277</v>
+        <v>2379977374.560989</v>
       </c>
       <c r="F92" t="n">
-        <v>0.1020698156387786</v>
+        <v>0.06964158246433828</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03485286863269046</v>
+        <v>0.03615958191524995</v>
       </c>
       <c r="H92" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93">
@@ -3028,22 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4932939909.816832</v>
+        <v>3489073320.582929</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1023862109645693</v>
+        <v>0.1091662403565555</v>
       </c>
       <c r="G93" t="n">
-        <v>0.03559517699658649</v>
+        <v>0.05301158539224639</v>
       </c>
       <c r="H93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
@@ -3062,16 +3062,16 @@
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2125666609.145133</v>
+        <v>2043065135.346531</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1138855089135242</v>
+        <v>0.1498740163928582</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03128451605412894</v>
+        <v>0.03671699687484709</v>
       </c>
       <c r="H94" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95">
@@ -3084,19 +3084,19 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2063783836.986665</v>
+        <v>2849691424.50328</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1060769144748283</v>
+        <v>0.1228358661671833</v>
       </c>
       <c r="G95" t="n">
-        <v>0.05086547561518124</v>
+        <v>0.04843061399632431</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
@@ -3112,19 +3112,19 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1451475602.021642</v>
+        <v>2113294903.642167</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1262285942820986</v>
+        <v>0.1202929065944608</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03146918421875271</v>
+        <v>0.03310979809560805</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
@@ -3140,19 +3140,19 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>5308601456.41179</v>
+        <v>4059272776.239794</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1681174158961347</v>
+        <v>0.1545619740268446</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02273388439820871</v>
+        <v>0.01916962641347281</v>
       </c>
       <c r="H97" t="b">
         <v>1</v>
@@ -3168,19 +3168,19 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>2477084008.984982</v>
+        <v>3181617049.918636</v>
       </c>
       <c r="F98" t="n">
-        <v>0.09755372779887787</v>
+        <v>0.1158319866439455</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02203489936116408</v>
+        <v>0.02189143239341321</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
@@ -3196,19 +3196,19 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2938046485.204593</v>
+        <v>2495736147.980224</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1160994976202259</v>
+        <v>0.1278163965125479</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02658237311783151</v>
+        <v>0.02669876965343831</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
@@ -3224,19 +3224,19 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3382321521.641076</v>
+        <v>4309688655.959768</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1639443928776251</v>
+        <v>0.1793295918681717</v>
       </c>
       <c r="G100" t="n">
-        <v>0.0234913941681745</v>
+        <v>0.02706733102624943</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
@@ -3258,16 +3258,16 @@
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3471716868.915391</v>
+        <v>3087828518.633601</v>
       </c>
       <c r="F101" t="n">
-        <v>0.2074984732300637</v>
+        <v>0.2122794271047304</v>
       </c>
       <c r="G101" t="n">
-        <v>0.05588447716998562</v>
+        <v>0.04354102978641135</v>
       </c>
       <c r="H101" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_389.xlsx
+++ b/output/fit_clients/fit_round_389.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:K101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,21 @@
           <t>isSelected</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>last_involving_round</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>oort_utility</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -480,23 +495,30 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1777351309.906685</v>
+        <v>1994800332.633382</v>
       </c>
       <c r="F2" t="n">
-        <v>0.08684948831048796</v>
+        <v>0.07160321588436677</v>
       </c>
       <c r="G2" t="n">
-        <v>0.02924581720194511</v>
+        <v>0.03866694338664629</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
       </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -508,23 +530,30 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2133226795.478702</v>
+        <v>2394116125.872574</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1753491096325716</v>
+        <v>0.1446737401719955</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03541877591618471</v>
+        <v>0.04645104565427666</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
       </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -536,22 +565,31 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>3949043115.754802</v>
+        <v>3708806860.578527</v>
       </c>
       <c r="F4" t="n">
-        <v>0.139440182362827</v>
+        <v>0.139899260725676</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03422450223983129</v>
+        <v>0.03428989746663074</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>198</v>
+      </c>
+      <c r="J4" t="n">
+        <v>388</v>
+      </c>
+      <c r="K4" t="n">
+        <v>46.66874873706508</v>
       </c>
     </row>
     <row r="5">
@@ -564,23 +602,30 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3236055358.352595</v>
+        <v>4130809959.262693</v>
       </c>
       <c r="F5" t="n">
-        <v>0.06687780208357015</v>
+        <v>0.09610293998104198</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03985922550042609</v>
+        <v>0.04730709648191075</v>
       </c>
       <c r="H5" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>157</v>
+      </c>
+      <c r="J5" t="n">
+        <v>389</v>
+      </c>
+      <c r="K5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -592,23 +637,30 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2197861852.660091</v>
+        <v>2320739030.673784</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1451067690583657</v>
+        <v>0.12152516516212</v>
       </c>
       <c r="G6" t="n">
-        <v>0.05076033601673791</v>
+        <v>0.04451186638067357</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
       </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -626,17 +678,24 @@
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>1936007316.952319</v>
+        <v>3085544475.457713</v>
       </c>
       <c r="F7" t="n">
-        <v>0.08602269292766269</v>
+        <v>0.0763750407083037</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04450019110699747</v>
+        <v>0.04627986309348672</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
       </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -654,17 +713,24 @@
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>2770006477.717258</v>
+        <v>3291815350.614988</v>
       </c>
       <c r="F8" t="n">
-        <v>0.2004493391348753</v>
+        <v>0.1744053426219583</v>
       </c>
       <c r="G8" t="n">
-        <v>0.03226819868861107</v>
+        <v>0.02290321012417217</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
       </c>
+      <c r="I8" t="n">
+        <v>105</v>
+      </c>
+      <c r="J8" t="n">
+        <v>386</v>
+      </c>
+      <c r="K8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -676,23 +742,30 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>2080055060.633674</v>
+        <v>1927181079.476841</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1407500902521611</v>
+        <v>0.1945259242301449</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02423664418353148</v>
+        <v>0.02358568529330857</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
       </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -704,22 +777,31 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>5808643187.569796</v>
+        <v>4576269416.388926</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1481081093606567</v>
+        <v>0.1568507731946136</v>
       </c>
       <c r="G10" t="n">
-        <v>0.035857364095945</v>
+        <v>0.0387756300208041</v>
       </c>
       <c r="H10" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>317</v>
+      </c>
+      <c r="J10" t="n">
+        <v>388</v>
+      </c>
+      <c r="K10" t="n">
+        <v>50.91498165847948</v>
       </c>
     </row>
     <row r="11">
@@ -732,22 +814,31 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3195839394.814139</v>
+        <v>4114986534.005166</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1822917643435463</v>
+        <v>0.1282394802648825</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03277795446196796</v>
+        <v>0.04093841681917739</v>
       </c>
       <c r="H11" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>163</v>
+      </c>
+      <c r="J11" t="n">
+        <v>389</v>
+      </c>
+      <c r="K11" t="n">
+        <v>58.0016508417641</v>
       </c>
     </row>
     <row r="12">
@@ -760,23 +851,30 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2047949154.681428</v>
+        <v>2008313078.179136</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1860982872217521</v>
+        <v>0.1375209067332999</v>
       </c>
       <c r="G12" t="n">
-        <v>0.03430721165657135</v>
+        <v>0.05066766329973021</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
       </c>
+      <c r="I12" t="n">
+        <v>3</v>
+      </c>
+      <c r="J12" t="n">
+        <v>308</v>
+      </c>
+      <c r="K12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -794,16 +892,25 @@
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4821453044.71876</v>
+        <v>3917048947.756773</v>
       </c>
       <c r="F13" t="n">
-        <v>0.09453179678137152</v>
+        <v>0.07056243570691655</v>
       </c>
       <c r="G13" t="n">
-        <v>0.03087965896485261</v>
+        <v>0.02943180981202475</v>
       </c>
       <c r="H13" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>203</v>
+      </c>
+      <c r="J13" t="n">
+        <v>388</v>
+      </c>
+      <c r="K13" t="n">
+        <v>50.31047249334409</v>
       </c>
     </row>
     <row r="14">
@@ -816,23 +923,30 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>2373240582.981045</v>
+        <v>2930454636.497153</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1347835833448543</v>
+        <v>0.1590991087877797</v>
       </c>
       <c r="G14" t="n">
-        <v>0.02973688658102233</v>
+        <v>0.04173467848718213</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
       </c>
+      <c r="I14" t="n">
+        <v>81</v>
+      </c>
+      <c r="J14" t="n">
+        <v>387</v>
+      </c>
+      <c r="K14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -850,17 +964,24 @@
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1586883101.962525</v>
+        <v>1310551425.572628</v>
       </c>
       <c r="F15" t="n">
-        <v>0.09650118412818579</v>
+        <v>0.08431722482708892</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04562157577705168</v>
+        <v>0.03463041757961568</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
       </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -872,23 +993,30 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2289747486.256682</v>
+        <v>2595603669.331706</v>
       </c>
       <c r="F16" t="n">
-        <v>0.08955216226210491</v>
+        <v>0.1006862063301134</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04994981399214812</v>
+        <v>0.04539174551068691</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
       </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -906,16 +1034,25 @@
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>3401273741.363185</v>
+        <v>3636994331.739668</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1299101640639734</v>
+        <v>0.1516605021436097</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04340975678041245</v>
+        <v>0.03468529990828485</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>187</v>
+      </c>
+      <c r="J17" t="n">
+        <v>388</v>
+      </c>
+      <c r="K17" t="n">
+        <v>43.15771006659359</v>
       </c>
     </row>
     <row r="18">
@@ -928,23 +1065,30 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3576660655.374837</v>
+        <v>3106235766.172956</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1624386094044477</v>
+        <v>0.1322990736715827</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02122921576537148</v>
+        <v>0.03195122059443329</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
       </c>
+      <c r="I18" t="n">
+        <v>94</v>
+      </c>
+      <c r="J18" t="n">
+        <v>383</v>
+      </c>
+      <c r="K18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -956,23 +1100,30 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1277203553.393098</v>
+        <v>1067253929.300666</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1170513602178831</v>
+        <v>0.1526298418196851</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02465393861738029</v>
+        <v>0.0272929074956015</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
       </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -984,23 +1135,30 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2027456599.345711</v>
+        <v>2332326757.752475</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1456419738555499</v>
+        <v>0.1357515398674935</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02230864482139824</v>
+        <v>0.02377789990042782</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
       </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1012,23 +1170,30 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2598686668.28228</v>
+        <v>1987478488.064854</v>
       </c>
       <c r="F21" t="n">
-        <v>0.09528950011219477</v>
+        <v>0.0996391822361484</v>
       </c>
       <c r="G21" t="n">
-        <v>0.0443430546330048</v>
+        <v>0.04051627703353203</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
       </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1040,23 +1205,30 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3362174719.942693</v>
+        <v>2862040389.516124</v>
       </c>
       <c r="F22" t="n">
-        <v>0.114498738972386</v>
+        <v>0.1068121884812624</v>
       </c>
       <c r="G22" t="n">
-        <v>0.05044772761922759</v>
+        <v>0.04077848286963042</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
       </c>
+      <c r="I22" t="n">
+        <v>107</v>
+      </c>
+      <c r="J22" t="n">
+        <v>379</v>
+      </c>
+      <c r="K22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1068,23 +1240,30 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1307729640.44361</v>
+        <v>1045086973.035475</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1389673524950182</v>
+        <v>0.123239789793092</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04462474662506161</v>
+        <v>0.03440400490122404</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
       </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1096,23 +1275,30 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3629680709.901549</v>
+        <v>3501723191.838351</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1098731994019713</v>
+        <v>0.1185177979866097</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03729641446939242</v>
+        <v>0.03322213884751492</v>
       </c>
       <c r="H24" t="b">
         <v>1</v>
       </c>
+      <c r="I24" t="n">
+        <v>119</v>
+      </c>
+      <c r="J24" t="n">
+        <v>389</v>
+      </c>
+      <c r="K24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1124,23 +1310,30 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>962003417.1786492</v>
+        <v>1033046513.631794</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1055478781558418</v>
+        <v>0.08538536524855186</v>
       </c>
       <c r="G25" t="n">
-        <v>0.0251927470423427</v>
+        <v>0.03022979153324079</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
       </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1152,23 +1345,30 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>937069675.1102076</v>
+        <v>1058523950.762805</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1146570960807416</v>
+        <v>0.1210619730643042</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03303502835292139</v>
+        <v>0.03146212045655074</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
       </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1180,22 +1380,31 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>4325813515.360295</v>
+        <v>3427657686.69659</v>
       </c>
       <c r="F27" t="n">
-        <v>0.117758433474491</v>
+        <v>0.1370292913035183</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02462097852501169</v>
+        <v>0.01867579583292507</v>
       </c>
       <c r="H27" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
+        <v>162</v>
+      </c>
+      <c r="J27" t="n">
+        <v>388</v>
+      </c>
+      <c r="K27" t="n">
+        <v>41.9328625076494</v>
       </c>
     </row>
     <row r="28">
@@ -1208,23 +1417,30 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2722207522.1218</v>
+        <v>3867338843.711631</v>
       </c>
       <c r="F28" t="n">
-        <v>0.09510985798013537</v>
+        <v>0.1136298308998255</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04964123608587601</v>
+        <v>0.04475012828268174</v>
       </c>
       <c r="H28" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I28" t="n">
+        <v>92</v>
+      </c>
+      <c r="J28" t="n">
+        <v>389</v>
+      </c>
+      <c r="K28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1242,17 +1458,24 @@
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>3677343888.734417</v>
+        <v>5580085085.820477</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1455251044629462</v>
+        <v>0.1480962986506052</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03469035024989935</v>
+        <v>0.03266888875489003</v>
       </c>
       <c r="H29" t="b">
         <v>1</v>
       </c>
+      <c r="I29" t="n">
+        <v>333</v>
+      </c>
+      <c r="J29" t="n">
+        <v>389</v>
+      </c>
+      <c r="K29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1264,23 +1487,30 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1538333583.608613</v>
+        <v>2176570515.041176</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1092154508746074</v>
+        <v>0.1262695241648333</v>
       </c>
       <c r="G30" t="n">
-        <v>0.02433180921756648</v>
+        <v>0.03038816748026055</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
       </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1292,23 +1522,30 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1347660228.529501</v>
+        <v>1358983546.485786</v>
       </c>
       <c r="F31" t="n">
-        <v>0.09999062359777655</v>
+        <v>0.1085285394890041</v>
       </c>
       <c r="G31" t="n">
-        <v>0.03204927310304666</v>
+        <v>0.05208524193935837</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
       </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1320,23 +1557,30 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1393455820.588443</v>
+        <v>1353761578.058485</v>
       </c>
       <c r="F32" t="n">
-        <v>0.09654905456242276</v>
+        <v>0.108895807838306</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02342148400500877</v>
+        <v>0.03607469468434508</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
       </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1348,23 +1592,30 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>3104781628.393809</v>
+        <v>2936295059.78138</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1549022138487024</v>
+        <v>0.1396086168647335</v>
       </c>
       <c r="G33" t="n">
-        <v>0.03876044418303398</v>
+        <v>0.05261180361693468</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
       </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1376,23 +1627,30 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1126656626.359321</v>
+        <v>1195600118.051151</v>
       </c>
       <c r="F34" t="n">
-        <v>0.0833776701965273</v>
+        <v>0.08444790206736869</v>
       </c>
       <c r="G34" t="n">
-        <v>0.01736813080702041</v>
+        <v>0.02522104392524581</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
       </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1404,23 +1662,30 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>962025423.0321372</v>
+        <v>1297638863.657756</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1152054933867483</v>
+        <v>0.09721445288278381</v>
       </c>
       <c r="G35" t="n">
-        <v>0.032056510340175</v>
+        <v>0.0443336634782363</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
       </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1432,23 +1697,30 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2526355815.435511</v>
+        <v>3199474757.860512</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1572276269340997</v>
+        <v>0.1437338418496542</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02802271985900452</v>
+        <v>0.02703672350997661</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
       </c>
+      <c r="I36" t="n">
+        <v>3</v>
+      </c>
+      <c r="J36" t="n">
+        <v>144</v>
+      </c>
+      <c r="K36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1466,17 +1738,24 @@
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2371921386.821809</v>
+        <v>2756399491.745256</v>
       </c>
       <c r="F37" t="n">
-        <v>0.09370442466675505</v>
+        <v>0.102332027497022</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03508179840006062</v>
+        <v>0.04251446843141068</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
       </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1488,23 +1767,30 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1713287378.654</v>
+        <v>1667599460.586636</v>
       </c>
       <c r="F38" t="n">
-        <v>0.08135646341071154</v>
+        <v>0.1029032859524986</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03382155599158123</v>
+        <v>0.03379029002573722</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
       </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1516,23 +1802,30 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1454418430.063815</v>
+        <v>2061299300.369411</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1586437892854999</v>
+        <v>0.1478642563359443</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02731317388231142</v>
+        <v>0.03273209382340236</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
       </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1544,23 +1837,30 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1629076546.22234</v>
+        <v>1606353618.312393</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1246657251762042</v>
+        <v>0.1320098543018235</v>
       </c>
       <c r="G40" t="n">
-        <v>0.04245647233128471</v>
+        <v>0.05070916409731892</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
       </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1572,23 +1872,30 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2162036211.608028</v>
+        <v>2003589846.93176</v>
       </c>
       <c r="F41" t="n">
-        <v>0.140267524916772</v>
+        <v>0.1232858939084933</v>
       </c>
       <c r="G41" t="n">
-        <v>0.02890159305894265</v>
+        <v>0.03736623563935189</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
       </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1600,23 +1907,30 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3184310115.664472</v>
+        <v>2650841942.495446</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1045611522011155</v>
+        <v>0.1143287998478137</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03218495293745284</v>
+        <v>0.03992071987892939</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
       </c>
+      <c r="I42" t="n">
+        <v>170</v>
+      </c>
+      <c r="J42" t="n">
+        <v>387</v>
+      </c>
+      <c r="K42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1634,17 +1948,24 @@
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2630633216.859614</v>
+        <v>2494550522.404394</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1298906756030977</v>
+        <v>0.1253437540378302</v>
       </c>
       <c r="G43" t="n">
-        <v>0.01872570190367491</v>
+        <v>0.01578739603018384</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
       </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1662,17 +1983,24 @@
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>2278766583.903592</v>
+        <v>2363520568.976213</v>
       </c>
       <c r="F44" t="n">
-        <v>0.06243238490077423</v>
+        <v>0.06577478556302754</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03440611038442182</v>
+        <v>0.02529348589767741</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
       </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1684,23 +2012,30 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1963991631.216281</v>
+        <v>2358859795.846842</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1664075075029508</v>
+        <v>0.120420973865946</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04905127804479265</v>
+        <v>0.04362987183419615</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
       </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1712,22 +2047,31 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>5716300752.346795</v>
+        <v>4664100680.794844</v>
       </c>
       <c r="F46" t="n">
-        <v>0.133703645205787</v>
+        <v>0.1554805086654441</v>
       </c>
       <c r="G46" t="n">
-        <v>0.05629317538022623</v>
+        <v>0.04974234125550069</v>
       </c>
       <c r="H46" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I46" t="n">
+        <v>234</v>
+      </c>
+      <c r="J46" t="n">
+        <v>388</v>
+      </c>
+      <c r="K46" t="n">
+        <v>48.29272195130227</v>
       </c>
     </row>
     <row r="47">
@@ -1740,23 +2084,30 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4531195207.764441</v>
+        <v>4973641022.564881</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1818776060507357</v>
+        <v>0.1905086030586266</v>
       </c>
       <c r="G47" t="n">
-        <v>0.04110387385602349</v>
+        <v>0.05272744781074722</v>
       </c>
       <c r="H47" t="b">
         <v>1</v>
       </c>
+      <c r="I47" t="n">
+        <v>174</v>
+      </c>
+      <c r="J47" t="n">
+        <v>389</v>
+      </c>
+      <c r="K47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1768,22 +2119,31 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3831426964.983414</v>
+        <v>3105702618.505069</v>
       </c>
       <c r="F48" t="n">
-        <v>0.0819452120593628</v>
+        <v>0.1008787248086494</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03105524129777799</v>
+        <v>0.02482835051326194</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
+      </c>
+      <c r="I48" t="n">
+        <v>202</v>
+      </c>
+      <c r="J48" t="n">
+        <v>388</v>
+      </c>
+      <c r="K48" t="n">
+        <v>31.87708067026819</v>
       </c>
     </row>
     <row r="49">
@@ -1796,23 +2156,30 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1373713007.648501</v>
+        <v>1455035654.309035</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1888833519175507</v>
+        <v>0.1670956850562057</v>
       </c>
       <c r="G49" t="n">
-        <v>0.02935665287451998</v>
+        <v>0.04468993944117546</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
       </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -1824,23 +2191,30 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3337991435.749929</v>
+        <v>2765200042.700583</v>
       </c>
       <c r="F50" t="n">
-        <v>0.122502190447094</v>
+        <v>0.1283905856222085</v>
       </c>
       <c r="G50" t="n">
-        <v>0.0430950119183112</v>
+        <v>0.04420169159407626</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
       </c>
+      <c r="I50" t="n">
+        <v>134</v>
+      </c>
+      <c r="J50" t="n">
+        <v>387</v>
+      </c>
+      <c r="K50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -1858,17 +2232,24 @@
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>997952645.1677943</v>
+        <v>1260178730.264509</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1247920898127823</v>
+        <v>0.1819581252877602</v>
       </c>
       <c r="G51" t="n">
-        <v>0.03931111221833999</v>
+        <v>0.0519289337839586</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
       </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -1880,23 +2261,30 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4617871672.831411</v>
+        <v>4612625555.859514</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1290058162256043</v>
+        <v>0.1066090330467488</v>
       </c>
       <c r="G52" t="n">
-        <v>0.03753897332708629</v>
+        <v>0.06039430173578436</v>
       </c>
       <c r="H52" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I52" t="n">
+        <v>227</v>
+      </c>
+      <c r="J52" t="n">
+        <v>389</v>
+      </c>
+      <c r="K52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -1908,23 +2296,30 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3093847952.154194</v>
+        <v>3028551597.422013</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1391788855038438</v>
+        <v>0.1769832007400015</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02522050899935496</v>
+        <v>0.024726265473366</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
       </c>
+      <c r="I53" t="n">
+        <v>54</v>
+      </c>
+      <c r="J53" t="n">
+        <v>387</v>
+      </c>
+      <c r="K53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -1936,22 +2331,31 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4366225231.276478</v>
+        <v>4549188343.400503</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1604157460207352</v>
+        <v>0.1253559094114937</v>
       </c>
       <c r="G54" t="n">
-        <v>0.03747213449277478</v>
+        <v>0.03208613123286957</v>
       </c>
       <c r="H54" t="b">
         <v>1</v>
+      </c>
+      <c r="I54" t="n">
+        <v>207</v>
+      </c>
+      <c r="J54" t="n">
+        <v>389</v>
+      </c>
+      <c r="K54" t="n">
+        <v>51.51965563204173</v>
       </c>
     </row>
     <row r="55">
@@ -1964,22 +2368,31 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4338585913.714032</v>
+        <v>4117029611.894997</v>
       </c>
       <c r="F55" t="n">
-        <v>0.2073512878900351</v>
+        <v>0.1619123988010808</v>
       </c>
       <c r="G55" t="n">
-        <v>0.03242225298156749</v>
+        <v>0.03155098167034613</v>
       </c>
       <c r="H55" t="b">
         <v>1</v>
+      </c>
+      <c r="I55" t="n">
+        <v>189</v>
+      </c>
+      <c r="J55" t="n">
+        <v>389</v>
+      </c>
+      <c r="K55" t="n">
+        <v>54.68534817815546</v>
       </c>
     </row>
     <row r="56">
@@ -1992,23 +2405,30 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1779412655.57195</v>
+        <v>1540057332.669862</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1025680909802621</v>
+        <v>0.1254505754574059</v>
       </c>
       <c r="G56" t="n">
-        <v>0.03630687893396736</v>
+        <v>0.03604625076283786</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
       </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2020,22 +2440,31 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3602774142.513985</v>
+        <v>3835399750.223976</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1405582138871969</v>
+        <v>0.1617650556716825</v>
       </c>
       <c r="G57" t="n">
-        <v>0.01748817937180238</v>
+        <v>0.0172439046083753</v>
       </c>
       <c r="H57" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I57" t="n">
+        <v>165</v>
+      </c>
+      <c r="J57" t="n">
+        <v>389</v>
+      </c>
+      <c r="K57" t="n">
+        <v>51.66946402019843</v>
       </c>
     </row>
     <row r="58">
@@ -2048,23 +2477,30 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1891730554.305149</v>
+        <v>1911113855.118373</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1578490214031405</v>
+        <v>0.178675796145566</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03143590603276472</v>
+        <v>0.02906322662804921</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
       </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2076,22 +2512,31 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4285215168.374818</v>
+        <v>4152274532.740598</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1251748617888215</v>
+        <v>0.1042216807645504</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04557007903075681</v>
+        <v>0.03430950729493607</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
+      </c>
+      <c r="I59" t="n">
+        <v>189</v>
+      </c>
+      <c r="J59" t="n">
+        <v>388</v>
+      </c>
+      <c r="K59" t="n">
+        <v>50.63074407161264</v>
       </c>
     </row>
     <row r="60">
@@ -2104,23 +2549,30 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2689469550.364209</v>
+        <v>3123574259.717847</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1960441390265495</v>
+        <v>0.1945631766700595</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02013514498425624</v>
+        <v>0.03144034791565162</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
       </c>
+      <c r="I60" t="n">
+        <v>71</v>
+      </c>
+      <c r="J60" t="n">
+        <v>379</v>
+      </c>
+      <c r="K60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2132,23 +2584,30 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2826464059.179113</v>
+        <v>3206414445.743774</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1493476069435275</v>
+        <v>0.1245679284605562</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02387929812038873</v>
+        <v>0.02226789906272559</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
       </c>
+      <c r="I61" t="n">
+        <v>13</v>
+      </c>
+      <c r="J61" t="n">
+        <v>384</v>
+      </c>
+      <c r="K61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2160,23 +2619,30 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1720477130.517244</v>
+        <v>1392400867.482844</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1236066119669343</v>
+        <v>0.1221300715256138</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04592065609048492</v>
+        <v>0.03468290641069709</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
       </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2188,23 +2654,30 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4604960084.45788</v>
+        <v>5056454672.260465</v>
       </c>
       <c r="F63" t="n">
-        <v>0.09672761330664435</v>
+        <v>0.08771742100899099</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03096391924144599</v>
+        <v>0.03619531851016241</v>
       </c>
       <c r="H63" t="b">
         <v>1</v>
       </c>
+      <c r="I63" t="n">
+        <v>192</v>
+      </c>
+      <c r="J63" t="n">
+        <v>389</v>
+      </c>
+      <c r="K63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2216,22 +2689,31 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>5363807027.143683</v>
+        <v>5015512293.073568</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1310808740810493</v>
+        <v>0.1454903442514607</v>
       </c>
       <c r="G64" t="n">
-        <v>0.03001433455966908</v>
+        <v>0.0247829827938404</v>
       </c>
       <c r="H64" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I64" t="n">
+        <v>193</v>
+      </c>
+      <c r="J64" t="n">
+        <v>388</v>
+      </c>
+      <c r="K64" t="n">
+        <v>49.19745344287777</v>
       </c>
     </row>
     <row r="65">
@@ -2244,22 +2726,31 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5172643775.998468</v>
+        <v>3967675200.581196</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1576266174440959</v>
+        <v>0.1275271779405142</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02378719473796123</v>
+        <v>0.01978562738461009</v>
       </c>
       <c r="H65" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I65" t="n">
+        <v>290</v>
+      </c>
+      <c r="J65" t="n">
+        <v>388</v>
+      </c>
+      <c r="K65" t="n">
+        <v>51.15082766340171</v>
       </c>
     </row>
     <row r="66">
@@ -2272,23 +2763,30 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>3967360225.375585</v>
+        <v>4976389426.021418</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1442595853771564</v>
+        <v>0.1314123323666938</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03677387847562082</v>
+        <v>0.03414416293220691</v>
       </c>
       <c r="H66" t="b">
         <v>1</v>
       </c>
+      <c r="I66" t="n">
+        <v>192</v>
+      </c>
+      <c r="J66" t="n">
+        <v>389</v>
+      </c>
+      <c r="K66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2306,17 +2804,24 @@
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2557011787.740508</v>
+        <v>3476498942.959945</v>
       </c>
       <c r="F67" t="n">
-        <v>0.07298427790877804</v>
+        <v>0.06743854868030291</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04445845055223885</v>
+        <v>0.03480334661287</v>
       </c>
       <c r="H67" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I67" t="n">
+        <v>10</v>
+      </c>
+      <c r="J67" t="n">
+        <v>389</v>
+      </c>
+      <c r="K67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2328,23 +2833,30 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>4688594837.839503</v>
+        <v>3872528668.469526</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1554526770989936</v>
+        <v>0.1236569210781814</v>
       </c>
       <c r="G68" t="n">
-        <v>0.03304833132209165</v>
+        <v>0.03307593486216839</v>
       </c>
       <c r="H68" t="b">
         <v>1</v>
       </c>
+      <c r="I68" t="n">
+        <v>211</v>
+      </c>
+      <c r="J68" t="n">
+        <v>389</v>
+      </c>
+      <c r="K68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2356,23 +2868,30 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2298518620.33401</v>
+        <v>1521062891.857677</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1599116829377676</v>
+        <v>0.1109620116958319</v>
       </c>
       <c r="G69" t="n">
-        <v>0.05190145548348404</v>
+        <v>0.0490850577336764</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
       </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2384,23 +2903,30 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3443909955.185324</v>
+        <v>3455521603.050589</v>
       </c>
       <c r="F70" t="n">
-        <v>0.06419298475064965</v>
+        <v>0.1025597615914257</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03128802864140782</v>
+        <v>0.04896431232375882</v>
       </c>
       <c r="H70" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I70" t="n">
+        <v>53</v>
+      </c>
+      <c r="J70" t="n">
+        <v>389</v>
+      </c>
+      <c r="K70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2412,22 +2938,31 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>3645779571.294264</v>
+        <v>4530365364.295005</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1199542121669472</v>
+        <v>0.1325231837517203</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02301009129594165</v>
+        <v>0.02252518425723187</v>
       </c>
       <c r="H71" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I71" t="n">
+        <v>277</v>
+      </c>
+      <c r="J71" t="n">
+        <v>388</v>
+      </c>
+      <c r="K71" t="n">
+        <v>50.23528282145097</v>
       </c>
     </row>
     <row r="72">
@@ -2440,23 +2975,30 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1616326045.473539</v>
+        <v>1708225908.107937</v>
       </c>
       <c r="F72" t="n">
-        <v>0.09320151505398007</v>
+        <v>0.1082015047674191</v>
       </c>
       <c r="G72" t="n">
-        <v>0.0517168606724198</v>
+        <v>0.05194873023050847</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
       </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2468,23 +3010,30 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2859859284.403943</v>
+        <v>2642874159.919914</v>
       </c>
       <c r="F73" t="n">
-        <v>0.08634362139465247</v>
+        <v>0.1073322588957662</v>
       </c>
       <c r="G73" t="n">
-        <v>0.0410874423257722</v>
+        <v>0.0339565979264328</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
       </c>
+      <c r="I73" t="n">
+        <v>29</v>
+      </c>
+      <c r="J73" t="n">
+        <v>382</v>
+      </c>
+      <c r="K73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2496,23 +3045,30 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3762567251.718124</v>
+        <v>2569570622.425851</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1143800654900829</v>
+        <v>0.1214172258723719</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02156579711304151</v>
+        <v>0.03236938273460589</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
       </c>
+      <c r="I74" t="n">
+        <v>111</v>
+      </c>
+      <c r="J74" t="n">
+        <v>383</v>
+      </c>
+      <c r="K74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2530,17 +3086,24 @@
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2148538366.603228</v>
+        <v>2008095250.679319</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1329925281260689</v>
+        <v>0.1248533272930254</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03760824371622522</v>
+        <v>0.02837959199648737</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
       </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2558,17 +3121,24 @@
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>5203839491.168973</v>
+        <v>4865179962.527656</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1188663568000271</v>
+        <v>0.09758106352197569</v>
       </c>
       <c r="G76" t="n">
-        <v>0.03292254616447895</v>
+        <v>0.03292540724349173</v>
       </c>
       <c r="H76" t="b">
         <v>1</v>
       </c>
+      <c r="I76" t="n">
+        <v>183</v>
+      </c>
+      <c r="J76" t="n">
+        <v>389</v>
+      </c>
+      <c r="K76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2580,23 +3150,30 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1402603788.103543</v>
+        <v>1437212646.874331</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1558853662781652</v>
+        <v>0.1136422575870229</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02533248187941018</v>
+        <v>0.02741631833126372</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
       </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2608,22 +3185,31 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3488289169.129021</v>
+        <v>3090970710.204652</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1342784864896579</v>
+        <v>0.1306028002955014</v>
       </c>
       <c r="G78" t="n">
-        <v>0.03709247477625748</v>
+        <v>0.04576413478419811</v>
       </c>
       <c r="H78" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I78" t="n">
+        <v>194</v>
+      </c>
+      <c r="J78" t="n">
+        <v>388</v>
+      </c>
+      <c r="K78" t="n">
+        <v>32.3539121324275</v>
       </c>
     </row>
     <row r="79">
@@ -2636,23 +3222,30 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1569092898.534736</v>
+        <v>1337668429.415615</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1693767701816208</v>
+        <v>0.1763661321538404</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03550933283889667</v>
+        <v>0.0292747707652268</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
       </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -2664,22 +3257,31 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>3496925229.68059</v>
+        <v>4926002672.411407</v>
       </c>
       <c r="F80" t="n">
-        <v>0.09495852538733897</v>
+        <v>0.106321847699717</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02608323635223673</v>
+        <v>0.03643738739877014</v>
       </c>
       <c r="H80" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I80" t="n">
+        <v>190</v>
+      </c>
+      <c r="J80" t="n">
+        <v>388</v>
+      </c>
+      <c r="K80" t="n">
+        <v>43.05878520643842</v>
       </c>
     </row>
     <row r="81">
@@ -2692,22 +3294,31 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3416295164.07631</v>
+        <v>3180474653.456789</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1223335950049029</v>
+        <v>0.1142091386369859</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02521788091733302</v>
+        <v>0.02345964025671677</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
+      </c>
+      <c r="I81" t="n">
+        <v>181</v>
+      </c>
+      <c r="J81" t="n">
+        <v>388</v>
+      </c>
+      <c r="K81" t="n">
+        <v>32.4835890125993</v>
       </c>
     </row>
     <row r="82">
@@ -2726,17 +3337,24 @@
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>3918698212.601252</v>
+        <v>4101073867.903494</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1804264211689359</v>
+        <v>0.2128996070232101</v>
       </c>
       <c r="G82" t="n">
-        <v>0.0215765952031944</v>
+        <v>0.02747753045875105</v>
       </c>
       <c r="H82" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I82" t="n">
+        <v>267</v>
+      </c>
+      <c r="J82" t="n">
+        <v>389</v>
+      </c>
+      <c r="K82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -2754,17 +3372,24 @@
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2089024537.070933</v>
+        <v>1706389206.649329</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1437866955593754</v>
+        <v>0.1486464481831801</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03877297612776684</v>
+        <v>0.02862317051650336</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
       </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -2776,23 +3401,30 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>1879811311.478464</v>
+        <v>2251106808.571148</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1155641817116677</v>
+        <v>0.08606463045822206</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04644675223161014</v>
+        <v>0.04757650724172759</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
       </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -2810,17 +3442,24 @@
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3201731327.265014</v>
+        <v>2275240464.41064</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1515979988416808</v>
+        <v>0.1405200353559923</v>
       </c>
       <c r="G85" t="n">
-        <v>0.05521685825902187</v>
+        <v>0.04201523918906009</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
       </c>
+      <c r="I85" t="n">
+        <v>50</v>
+      </c>
+      <c r="J85" t="n">
+        <v>373</v>
+      </c>
+      <c r="K85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -2832,23 +3471,30 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2158276720.62977</v>
+        <v>2267587301.599436</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1293978449157472</v>
+        <v>0.1295981415880761</v>
       </c>
       <c r="G86" t="n">
-        <v>0.0232682646775729</v>
+        <v>0.01755286723293455</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
       </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -2860,23 +3506,30 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1432588343.514632</v>
+        <v>1241698610.749066</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1304453751062513</v>
+        <v>0.1717970928885555</v>
       </c>
       <c r="G87" t="n">
-        <v>0.0323014068412566</v>
+        <v>0.03815252345332323</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
       </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -2894,17 +3547,24 @@
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3036798599.85221</v>
+        <v>3426375094.551906</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1603045495342056</v>
+        <v>0.1378367245645431</v>
       </c>
       <c r="G88" t="n">
-        <v>0.02723038266148187</v>
+        <v>0.02795268804394133</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
       </c>
+      <c r="I88" t="n">
+        <v>49</v>
+      </c>
+      <c r="J88" t="n">
+        <v>384</v>
+      </c>
+      <c r="K88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -2916,23 +3576,30 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2687874011.877624</v>
+        <v>2937044101.101788</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1322788993297309</v>
+        <v>0.09830894318426427</v>
       </c>
       <c r="G89" t="n">
-        <v>0.04052691348275689</v>
+        <v>0.03619680250576356</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
       </c>
+      <c r="I89" t="n">
+        <v>26</v>
+      </c>
+      <c r="J89" t="n">
+        <v>333</v>
+      </c>
+      <c r="K89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -2944,23 +3611,30 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1316640710.404244</v>
+        <v>1352974904.11376</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1321052026127203</v>
+        <v>0.1009722602015335</v>
       </c>
       <c r="G90" t="n">
-        <v>0.03824907974393479</v>
+        <v>0.04192058208688674</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
       </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -2972,23 +3646,30 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1549914188.753675</v>
+        <v>1927665369.108639</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1791451450507633</v>
+        <v>0.1183597634161849</v>
       </c>
       <c r="G91" t="n">
-        <v>0.05298264530109206</v>
+        <v>0.0613638791928709</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
       </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3000,23 +3681,30 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2379977374.560989</v>
+        <v>2225940257.342971</v>
       </c>
       <c r="F92" t="n">
-        <v>0.06964158246433828</v>
+        <v>0.08666978250916228</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03615958191524995</v>
+        <v>0.04731002217516125</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
       </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3028,23 +3716,30 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3489073320.582929</v>
+        <v>5033380053.19474</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1091662403565555</v>
+        <v>0.09795918930884991</v>
       </c>
       <c r="G93" t="n">
-        <v>0.05301158539224639</v>
+        <v>0.05311684561985</v>
       </c>
       <c r="H93" t="b">
         <v>1</v>
       </c>
+      <c r="I93" t="n">
+        <v>184</v>
+      </c>
+      <c r="J93" t="n">
+        <v>389</v>
+      </c>
+      <c r="K93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3056,23 +3751,30 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2043065135.346531</v>
+        <v>2276541482.05487</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1498740163928582</v>
+        <v>0.1175115302126924</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03671699687484709</v>
+        <v>0.02818526142078234</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
       </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3084,23 +3786,30 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2849691424.50328</v>
+        <v>2103650091.982216</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1228358661671833</v>
+        <v>0.0858502257539594</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04843061399632431</v>
+        <v>0.03542644048129458</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
       </c>
+      <c r="I95" t="n">
+        <v>2</v>
+      </c>
+      <c r="J95" t="n">
+        <v>127</v>
+      </c>
+      <c r="K95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3112,23 +3821,30 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2113294903.642167</v>
+        <v>2299284552.226007</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1202929065944608</v>
+        <v>0.1328894970733739</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03310979809560805</v>
+        <v>0.03771177950631942</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
       </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3140,22 +3856,31 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4059272776.239794</v>
+        <v>3810461412.229531</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1545619740268446</v>
+        <v>0.1427082628441373</v>
       </c>
       <c r="G97" t="n">
-        <v>0.01916962641347281</v>
+        <v>0.01825889638805412</v>
       </c>
       <c r="H97" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I97" t="n">
+        <v>202</v>
+      </c>
+      <c r="J97" t="n">
+        <v>388</v>
+      </c>
+      <c r="K97" t="n">
+        <v>47.94475084116775</v>
       </c>
     </row>
     <row r="98">
@@ -3168,23 +3893,30 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3181617049.918636</v>
+        <v>2911170520.170283</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1158319866439455</v>
+        <v>0.1214036023242603</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02189143239341321</v>
+        <v>0.02844904012622186</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
       </c>
+      <c r="I98" t="n">
+        <v>99</v>
+      </c>
+      <c r="J98" t="n">
+        <v>387</v>
+      </c>
+      <c r="K98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3202,17 +3934,24 @@
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2495736147.980224</v>
+        <v>2122367994.044829</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1278163965125479</v>
+        <v>0.09838633769161659</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02669876965343831</v>
+        <v>0.02652607511446848</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
       </c>
+      <c r="I99" t="n">
+        <v>9</v>
+      </c>
+      <c r="J99" t="n">
+        <v>386</v>
+      </c>
+      <c r="K99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3230,16 +3969,25 @@
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4309688655.959768</v>
+        <v>3903603897.910904</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1793295918681717</v>
+        <v>0.111323012692791</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02706733102624943</v>
+        <v>0.01912463260988867</v>
       </c>
       <c r="H100" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I100" t="n">
+        <v>179</v>
+      </c>
+      <c r="J100" t="n">
+        <v>389</v>
+      </c>
+      <c r="K100" t="n">
+        <v>52.08350263694992</v>
       </c>
     </row>
     <row r="101">
@@ -3252,23 +4000,30 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3087828518.633601</v>
+        <v>3522191876.905151</v>
       </c>
       <c r="F101" t="n">
-        <v>0.2122794271047304</v>
+        <v>0.2169341051147332</v>
       </c>
       <c r="G101" t="n">
-        <v>0.04354102978641135</v>
+        <v>0.05803893097805974</v>
       </c>
       <c r="H101" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I101" t="n">
+        <v>34</v>
+      </c>
+      <c r="J101" t="n">
+        <v>389</v>
+      </c>
+      <c r="K101" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
